--- a/5/9/Índice de stress local 2011 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2011 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2705</v>
+        <v>0.2261</v>
       </c>
       <c r="C2">
-        <v>0.083</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1875</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2749</v>
+        <v>0.2316</v>
       </c>
       <c r="C3">
-        <v>0.0847</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D3">
-        <v>0.1902</v>
+        <v>0.1475</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2917</v>
+        <v>0.2487</v>
       </c>
       <c r="C4">
         <v>0.0935</v>
       </c>
       <c r="D4">
-        <v>0.1982</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3085</v>
+        <v>0.2659</v>
       </c>
       <c r="C5">
-        <v>0.1024</v>
+        <v>0.103</v>
       </c>
       <c r="D5">
-        <v>0.2061</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3249</v>
+        <v>0.2829</v>
       </c>
       <c r="C6">
-        <v>0.1112</v>
+        <v>0.1124</v>
       </c>
       <c r="D6">
-        <v>0.2137</v>
+        <v>0.1704</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3404</v>
+        <v>0.2993</v>
       </c>
       <c r="C7">
-        <v>0.1203</v>
+        <v>0.1221</v>
       </c>
       <c r="D7">
-        <v>0.2201</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3554</v>
+        <v>0.3155</v>
       </c>
       <c r="C8">
-        <v>0.1295</v>
+        <v>0.132</v>
       </c>
       <c r="D8">
-        <v>0.2259</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3689</v>
+        <v>0.3304</v>
       </c>
       <c r="C9">
-        <v>0.138</v>
+        <v>0.1411</v>
       </c>
       <c r="D9">
-        <v>0.2309</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3816</v>
+        <v>0.3448</v>
       </c>
       <c r="C10">
-        <v>0.1466</v>
+        <v>0.1503</v>
       </c>
       <c r="D10">
-        <v>0.235</v>
+        <v>0.1945</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3932</v>
+        <v>0.3582</v>
       </c>
       <c r="C11">
-        <v>0.1546</v>
+        <v>0.1588</v>
       </c>
       <c r="D11">
-        <v>0.2386</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4051</v>
+        <v>0.372</v>
       </c>
       <c r="C12">
-        <v>0.1627</v>
+        <v>0.1675</v>
       </c>
       <c r="D12">
-        <v>0.2424</v>
+        <v>0.2045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.4156</v>
+        <v>0.3845</v>
       </c>
       <c r="C13">
-        <v>0.1701</v>
+        <v>0.1753</v>
       </c>
       <c r="D13">
-        <v>0.2456</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.4255</v>
+        <v>0.3964</v>
       </c>
       <c r="C14">
-        <v>0.1768</v>
+        <v>0.1826</v>
       </c>
       <c r="D14">
-        <v>0.2487</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4349</v>
+        <v>0.4075</v>
       </c>
       <c r="C15">
-        <v>0.1827</v>
+        <v>0.1888</v>
       </c>
       <c r="D15">
-        <v>0.2523</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4433</v>
+        <v>0.4174</v>
       </c>
       <c r="C16">
-        <v>0.1876</v>
+        <v>0.1941</v>
       </c>
       <c r="D16">
-        <v>0.2557</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.451</v>
+        <v>0.4266</v>
       </c>
       <c r="C17">
-        <v>0.1925</v>
+        <v>0.1993</v>
       </c>
       <c r="D17">
-        <v>0.2585</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4574</v>
+        <v>0.4345</v>
       </c>
       <c r="C18">
-        <v>0.1969</v>
+        <v>0.204</v>
       </c>
       <c r="D18">
-        <v>0.2605</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4634</v>
+        <v>0.4419</v>
       </c>
       <c r="C19">
-        <v>0.2012</v>
+        <v>0.2086</v>
       </c>
       <c r="D19">
-        <v>0.2622</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4719</v>
+        <v>0.4507</v>
       </c>
       <c r="C20">
-        <v>0.205</v>
+        <v>0.2126</v>
       </c>
       <c r="D20">
-        <v>0.2669</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4796</v>
+        <v>0.4588</v>
       </c>
       <c r="C21">
-        <v>0.2087</v>
+        <v>0.2166</v>
       </c>
       <c r="D21">
-        <v>0.2709</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4869</v>
+        <v>0.4662</v>
       </c>
       <c r="C22">
-        <v>0.2124</v>
+        <v>0.2204</v>
       </c>
       <c r="D22">
-        <v>0.2745</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4917</v>
+        <v>0.4707</v>
       </c>
       <c r="C23">
-        <v>0.2138</v>
+        <v>0.2219</v>
       </c>
       <c r="D23">
-        <v>0.2779</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.484</v>
+        <v>0.4633</v>
       </c>
       <c r="C24">
-        <v>0.2084</v>
+        <v>0.2162</v>
       </c>
       <c r="D24">
-        <v>0.2756</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4762</v>
+        <v>0.4556</v>
       </c>
       <c r="C25">
-        <v>0.2031</v>
+        <v>0.2106</v>
       </c>
       <c r="D25">
-        <v>0.2731</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4687</v>
+        <v>0.4481</v>
       </c>
       <c r="C26">
-        <v>0.1981</v>
+        <v>0.2053</v>
       </c>
       <c r="D26">
-        <v>0.2706</v>
+        <v>0.2428</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4605</v>
+        <v>0.4394</v>
       </c>
       <c r="C27">
-        <v>0.1924</v>
+        <v>0.1992</v>
       </c>
       <c r="D27">
-        <v>0.2681</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4525</v>
+        <v>0.4306</v>
       </c>
       <c r="C28">
-        <v>0.1864</v>
+        <v>0.1928</v>
       </c>
       <c r="D28">
-        <v>0.2661</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4456</v>
+        <v>0.4225</v>
       </c>
       <c r="C29">
-        <v>0.1807</v>
+        <v>0.1867</v>
       </c>
       <c r="D29">
-        <v>0.2649</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4402</v>
+        <v>0.4154</v>
       </c>
       <c r="C30">
-        <v>0.1756</v>
+        <v>0.1812</v>
       </c>
       <c r="D30">
-        <v>0.2646</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4358</v>
+        <v>0.409</v>
       </c>
       <c r="C31">
-        <v>0.1711</v>
+        <v>0.1764</v>
       </c>
       <c r="D31">
-        <v>0.2647</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4319</v>
+        <v>0.403</v>
       </c>
       <c r="C32">
-        <v>0.1671</v>
+        <v>0.1721</v>
       </c>
       <c r="D32">
-        <v>0.2648</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4294</v>
+        <v>0.3981</v>
       </c>
       <c r="C33">
-        <v>0.1639</v>
+        <v>0.1686</v>
       </c>
       <c r="D33">
-        <v>0.2654</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4273</v>
+        <v>0.3937</v>
       </c>
       <c r="C34">
-        <v>0.1612</v>
+        <v>0.1656</v>
       </c>
       <c r="D34">
-        <v>0.2661</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4256</v>
+        <v>0.3897</v>
       </c>
       <c r="C35">
-        <v>0.159</v>
+        <v>0.1632</v>
       </c>
       <c r="D35">
-        <v>0.2666</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.425</v>
+        <v>0.3866</v>
       </c>
       <c r="C36">
-        <v>0.1578</v>
+        <v>0.1618</v>
       </c>
       <c r="D36">
-        <v>0.2672</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4247</v>
+        <v>0.3841</v>
       </c>
       <c r="C37">
-        <v>0.1569</v>
+        <v>0.1607</v>
       </c>
       <c r="D37">
-        <v>0.2679</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.425</v>
+        <v>0.3821</v>
       </c>
       <c r="C38">
-        <v>0.1562</v>
+        <v>0.16</v>
       </c>
       <c r="D38">
-        <v>0.2687</v>
+        <v>0.2221</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4262</v>
+        <v>0.3811</v>
       </c>
       <c r="C39">
-        <v>0.1562</v>
+        <v>0.1599</v>
       </c>
       <c r="D39">
-        <v>0.27</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4249</v>
+        <v>0.3784</v>
       </c>
       <c r="C40">
-        <v>0.1566</v>
+        <v>0.1602</v>
       </c>
       <c r="D40">
-        <v>0.2682</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.424</v>
+        <v>0.3762</v>
       </c>
       <c r="C41">
-        <v>0.157</v>
+        <v>0.1605</v>
       </c>
       <c r="D41">
-        <v>0.267</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4245</v>
+        <v>0.3751</v>
       </c>
       <c r="C42">
-        <v>0.1573</v>
+        <v>0.1608</v>
       </c>
       <c r="D42">
-        <v>0.2672</v>
+        <v>0.2144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4252</v>
+        <v>0.3745</v>
       </c>
       <c r="C43">
-        <v>0.1576</v>
+        <v>0.161</v>
       </c>
       <c r="D43">
-        <v>0.2677</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.426</v>
+        <v>0.374</v>
       </c>
       <c r="C44">
-        <v>0.1574</v>
+        <v>0.1608</v>
       </c>
       <c r="D44">
-        <v>0.2686</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4279</v>
+        <v>0.3744</v>
       </c>
       <c r="C45">
-        <v>0.157</v>
+        <v>0.1603</v>
       </c>
       <c r="D45">
-        <v>0.271</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4298</v>
+        <v>0.375</v>
       </c>
       <c r="C46">
-        <v>0.1561</v>
+        <v>0.1594</v>
       </c>
       <c r="D46">
-        <v>0.2737</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4314</v>
+        <v>0.3755</v>
       </c>
       <c r="C47">
-        <v>0.1549</v>
+        <v>0.1581</v>
       </c>
       <c r="D47">
-        <v>0.2765</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4332</v>
+        <v>0.3766</v>
       </c>
       <c r="C48">
-        <v>0.1542</v>
+        <v>0.1574</v>
       </c>
       <c r="D48">
-        <v>0.2791</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4347</v>
+        <v>0.3774</v>
       </c>
       <c r="C49">
-        <v>0.1531</v>
+        <v>0.1563</v>
       </c>
       <c r="D49">
-        <v>0.2816</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4355</v>
+        <v>0.3779</v>
       </c>
       <c r="C50">
-        <v>0.1516</v>
+        <v>0.1548</v>
       </c>
       <c r="D50">
-        <v>0.2838</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4364</v>
+        <v>0.3789</v>
       </c>
       <c r="C51">
-        <v>0.1506</v>
+        <v>0.1538</v>
       </c>
       <c r="D51">
-        <v>0.2858</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4373</v>
+        <v>0.3797</v>
       </c>
       <c r="C52">
-        <v>0.1491</v>
+        <v>0.1523</v>
       </c>
       <c r="D52">
-        <v>0.2882</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4382</v>
+        <v>0.3807</v>
       </c>
       <c r="C53">
-        <v>0.1475</v>
+        <v>0.1507</v>
       </c>
       <c r="D53">
-        <v>0.2907</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4403</v>
+        <v>0.3829</v>
       </c>
       <c r="C54">
-        <v>0.1462</v>
+        <v>0.1494</v>
       </c>
       <c r="D54">
-        <v>0.2941</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4425</v>
+        <v>0.3854</v>
       </c>
       <c r="C55">
-        <v>0.1453</v>
+        <v>0.1485</v>
       </c>
       <c r="D55">
-        <v>0.2972</v>
+        <v>0.2368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4461</v>
+        <v>0.389</v>
       </c>
       <c r="C56">
-        <v>0.1446</v>
+        <v>0.1479</v>
       </c>
       <c r="D56">
-        <v>0.3015</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.449</v>
+        <v>0.392</v>
       </c>
       <c r="C57">
-        <v>0.1435</v>
+        <v>0.1468</v>
       </c>
       <c r="D57">
-        <v>0.3056</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4521</v>
+        <v>0.3954</v>
       </c>
       <c r="C58">
-        <v>0.1426</v>
+        <v>0.146</v>
       </c>
       <c r="D58">
-        <v>0.3096</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.4537</v>
+        <v>0.3972</v>
       </c>
       <c r="C59">
-        <v>0.1408</v>
+        <v>0.1442</v>
       </c>
       <c r="D59">
-        <v>0.3129</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4543</v>
+        <v>0.3982</v>
       </c>
       <c r="C60">
-        <v>0.1386</v>
+        <v>0.1419</v>
       </c>
       <c r="D60">
-        <v>0.3158</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.4542</v>
+        <v>0.3986</v>
       </c>
       <c r="C61">
-        <v>0.1364</v>
+        <v>0.1397</v>
       </c>
       <c r="D61">
-        <v>0.3179</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.4531</v>
+        <v>0.3981</v>
       </c>
       <c r="C62">
-        <v>0.134</v>
+        <v>0.1373</v>
       </c>
       <c r="D62">
-        <v>0.3192</v>
+        <v>0.2608</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.452</v>
+        <v>0.3976</v>
       </c>
       <c r="C63">
-        <v>0.1318</v>
+        <v>0.1351</v>
       </c>
       <c r="D63">
-        <v>0.3201</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.45</v>
+        <v>0.3962</v>
       </c>
       <c r="C64">
-        <v>0.1294</v>
+        <v>0.1326</v>
       </c>
       <c r="D64">
-        <v>0.3206</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.4472</v>
+        <v>0.3941</v>
       </c>
       <c r="C65">
-        <v>0.1273</v>
+        <v>0.1305</v>
       </c>
       <c r="D65">
-        <v>0.3199</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4447</v>
+        <v>0.3924</v>
       </c>
       <c r="C66">
-        <v>0.1258</v>
+        <v>0.1289</v>
       </c>
       <c r="D66">
-        <v>0.3189</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4431</v>
+        <v>0.3915</v>
       </c>
       <c r="C67">
-        <v>0.125</v>
+        <v>0.1281</v>
       </c>
       <c r="D67">
-        <v>0.3181</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4409</v>
+        <v>0.3897</v>
       </c>
       <c r="C68">
-        <v>0.1236</v>
+        <v>0.1267</v>
       </c>
       <c r="D68">
-        <v>0.3173</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4393</v>
+        <v>0.3885</v>
       </c>
       <c r="C69">
-        <v>0.1227</v>
+        <v>0.1257</v>
       </c>
       <c r="D69">
-        <v>0.3166</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4377</v>
+        <v>0.3871</v>
       </c>
       <c r="C70">
-        <v>0.1216</v>
+        <v>0.1246</v>
       </c>
       <c r="D70">
-        <v>0.3161</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4358</v>
+        <v>0.3855</v>
       </c>
       <c r="C71">
-        <v>0.1205</v>
+        <v>0.1235</v>
       </c>
       <c r="D71">
-        <v>0.3153</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4332</v>
+        <v>0.3833</v>
       </c>
       <c r="C72">
-        <v>0.1191</v>
+        <v>0.1221</v>
       </c>
       <c r="D72">
-        <v>0.314</v>
+        <v>0.2612</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4311</v>
+        <v>0.3816</v>
       </c>
       <c r="C73">
-        <v>0.1185</v>
+        <v>0.1214</v>
       </c>
       <c r="D73">
-        <v>0.3126</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4269</v>
+        <v>0.3781</v>
       </c>
       <c r="C74">
-        <v>0.1167</v>
+        <v>0.1196</v>
       </c>
       <c r="D74">
-        <v>0.3102</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4229</v>
+        <v>0.3746</v>
       </c>
       <c r="C75">
-        <v>0.1148</v>
+        <v>0.1176</v>
       </c>
       <c r="D75">
-        <v>0.308</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.4176</v>
+        <v>0.3702</v>
       </c>
       <c r="C76">
-        <v>0.1129</v>
+        <v>0.1155</v>
       </c>
       <c r="D76">
-        <v>0.3047</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.4127</v>
+        <v>0.3663</v>
       </c>
       <c r="C77">
-        <v>0.111</v>
+        <v>0.1135</v>
       </c>
       <c r="D77">
-        <v>0.3018</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.4087</v>
+        <v>0.3635</v>
       </c>
       <c r="C78">
-        <v>0.1101</v>
+        <v>0.1126</v>
       </c>
       <c r="D78">
-        <v>0.2986</v>
+        <v>0.2509</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.4054</v>
+        <v>0.3616</v>
       </c>
       <c r="C79">
-        <v>0.1095</v>
+        <v>0.1121</v>
       </c>
       <c r="D79">
-        <v>0.2959</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.4027</v>
+        <v>0.3605</v>
       </c>
       <c r="C80">
-        <v>0.1094</v>
+        <v>0.1119</v>
       </c>
       <c r="D80">
-        <v>0.2933</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.4009</v>
+        <v>0.3608</v>
       </c>
       <c r="C81">
-        <v>0.1093</v>
+        <v>0.1119</v>
       </c>
       <c r="D81">
-        <v>0.2916</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.399</v>
+        <v>0.3613</v>
       </c>
       <c r="C82">
-        <v>0.1093</v>
+        <v>0.1121</v>
       </c>
       <c r="D82">
-        <v>0.2897</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3979</v>
+        <v>0.3629</v>
       </c>
       <c r="C83">
-        <v>0.1098</v>
+        <v>0.1127</v>
       </c>
       <c r="D83">
-        <v>0.2881</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3974</v>
+        <v>0.3652</v>
       </c>
       <c r="C84">
-        <v>0.1105</v>
+        <v>0.1135</v>
       </c>
       <c r="D84">
-        <v>0.2869</v>
+        <v>0.2518</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3966</v>
+        <v>0.3678</v>
       </c>
       <c r="C85">
-        <v>0.1111</v>
+        <v>0.1142</v>
       </c>
       <c r="D85">
-        <v>0.2855</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3954</v>
+        <v>0.37</v>
       </c>
       <c r="C86">
-        <v>0.1111</v>
+        <v>0.1143</v>
       </c>
       <c r="D86">
-        <v>0.2843</v>
+        <v>0.2557</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3942</v>
+        <v>0.3727</v>
       </c>
       <c r="C87">
-        <v>0.1112</v>
+        <v>0.1146</v>
       </c>
       <c r="D87">
-        <v>0.283</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3936</v>
+        <v>0.3763</v>
       </c>
       <c r="C88">
-        <v>0.1118</v>
+        <v>0.1154</v>
       </c>
       <c r="D88">
-        <v>0.2818</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3948</v>
+        <v>0.382</v>
       </c>
       <c r="C89">
-        <v>0.1141</v>
+        <v>0.1179</v>
       </c>
       <c r="D89">
-        <v>0.2807</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3958</v>
+        <v>0.3878</v>
       </c>
       <c r="C90">
-        <v>0.1164</v>
+        <v>0.1206</v>
       </c>
       <c r="D90">
-        <v>0.2794</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3963</v>
+        <v>0.3932</v>
       </c>
       <c r="C91">
-        <v>0.1182</v>
+        <v>0.1226</v>
       </c>
       <c r="D91">
-        <v>0.2781</v>
+        <v>0.2705</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3969</v>
+        <v>0.3989</v>
       </c>
       <c r="C92">
-        <v>0.1201</v>
+        <v>0.1248</v>
       </c>
       <c r="D92">
-        <v>0.2768</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.3971</v>
+        <v>0.4042</v>
       </c>
       <c r="C93">
-        <v>0.1214</v>
+        <v>0.1264</v>
       </c>
       <c r="D93">
-        <v>0.2756</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.3981</v>
+        <v>0.4108</v>
       </c>
       <c r="C94">
-        <v>0.1238</v>
+        <v>0.1292</v>
       </c>
       <c r="D94">
-        <v>0.2743</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.3993</v>
+        <v>0.4175</v>
       </c>
       <c r="C95">
-        <v>0.1258</v>
+        <v>0.1315</v>
       </c>
       <c r="D95">
-        <v>0.2735</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4003</v>
+        <v>0.424</v>
       </c>
       <c r="C96">
-        <v>0.1278</v>
+        <v>0.1338</v>
       </c>
       <c r="D96">
-        <v>0.2724</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4012</v>
+        <v>0.4307</v>
       </c>
       <c r="C97">
-        <v>0.13</v>
+        <v>0.1363</v>
       </c>
       <c r="D97">
-        <v>0.2713</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.401</v>
+        <v>0.436</v>
       </c>
       <c r="C98">
-        <v>0.131</v>
+        <v>0.1376</v>
       </c>
       <c r="D98">
-        <v>0.2699</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4015</v>
+        <v>0.4419</v>
       </c>
       <c r="C99">
-        <v>0.1327</v>
+        <v>0.1396</v>
       </c>
       <c r="D99">
-        <v>0.2688</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4026</v>
+        <v>0.4482</v>
       </c>
       <c r="C100">
-        <v>0.1343</v>
+        <v>0.1415</v>
       </c>
       <c r="D100">
-        <v>0.2683</v>
+        <v>0.3067</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4036</v>
+        <v>0.4539</v>
       </c>
       <c r="C101">
-        <v>0.1361</v>
+        <v>0.1435</v>
       </c>
       <c r="D101">
-        <v>0.2676</v>
+        <v>0.3104</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4057</v>
+        <v>0.4604</v>
       </c>
       <c r="C102">
-        <v>0.1388</v>
+        <v>0.1465</v>
       </c>
       <c r="D102">
-        <v>0.2669</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4076</v>
+        <v>0.4666</v>
       </c>
       <c r="C103">
-        <v>0.1416</v>
+        <v>0.1497</v>
       </c>
       <c r="D103">
-        <v>0.266</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4083</v>
+        <v>0.471</v>
       </c>
       <c r="C104">
-        <v>0.1433</v>
+        <v>0.1515</v>
       </c>
       <c r="D104">
-        <v>0.265</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4083</v>
+        <v>0.4746</v>
       </c>
       <c r="C105">
-        <v>0.1445</v>
+        <v>0.1529</v>
       </c>
       <c r="D105">
-        <v>0.2639</v>
+        <v>0.3217</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4084</v>
+        <v>0.4778</v>
       </c>
       <c r="C106">
-        <v>0.1456</v>
+        <v>0.1542</v>
       </c>
       <c r="D106">
-        <v>0.2628</v>
+        <v>0.3236</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4082</v>
+        <v>0.4804</v>
       </c>
       <c r="C107">
-        <v>0.1465</v>
+        <v>0.1552</v>
       </c>
       <c r="D107">
-        <v>0.2617</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.408</v>
+        <v>0.4826</v>
       </c>
       <c r="C108">
-        <v>0.1473</v>
+        <v>0.1562</v>
       </c>
       <c r="D108">
-        <v>0.2606</v>
+        <v>0.3264</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4059</v>
+        <v>0.4827</v>
       </c>
       <c r="C109">
-        <v>0.1466</v>
+        <v>0.1555</v>
       </c>
       <c r="D109">
-        <v>0.2593</v>
+        <v>0.3272</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4039</v>
+        <v>0.4823</v>
       </c>
       <c r="C110">
-        <v>0.1456</v>
+        <v>0.1546</v>
       </c>
       <c r="D110">
-        <v>0.2583</v>
+        <v>0.3278</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4026</v>
+        <v>0.4826</v>
       </c>
       <c r="C111">
-        <v>0.1454</v>
+        <v>0.1544</v>
       </c>
       <c r="D111">
-        <v>0.2572</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4013</v>
+        <v>0.4823</v>
       </c>
       <c r="C112">
-        <v>0.145</v>
+        <v>0.154</v>
       </c>
       <c r="D112">
-        <v>0.2563</v>
+        <v>0.3283</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3997</v>
+        <v>0.4814</v>
       </c>
       <c r="C113">
-        <v>0.1443</v>
+        <v>0.1533</v>
       </c>
       <c r="D113">
-        <v>0.2554</v>
+        <v>0.3281</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3977</v>
+        <v>0.4797</v>
       </c>
       <c r="C114">
-        <v>0.143</v>
+        <v>0.152</v>
       </c>
       <c r="D114">
-        <v>0.2547</v>
+        <v>0.3277</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3956</v>
+        <v>0.4775</v>
       </c>
       <c r="C115">
-        <v>0.142</v>
+        <v>0.1509</v>
       </c>
       <c r="D115">
-        <v>0.2536</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3931</v>
+        <v>0.4745</v>
       </c>
       <c r="C116">
-        <v>0.1405</v>
+        <v>0.1492</v>
       </c>
       <c r="D116">
-        <v>0.2527</v>
+        <v>0.3253</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3913</v>
+        <v>0.4718</v>
       </c>
       <c r="C117">
-        <v>0.139</v>
+        <v>0.1477</v>
       </c>
       <c r="D117">
-        <v>0.2522</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3899</v>
+        <v>0.4691</v>
       </c>
       <c r="C118">
-        <v>0.1375</v>
+        <v>0.146</v>
       </c>
       <c r="D118">
-        <v>0.2524</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3883</v>
+        <v>0.4659</v>
       </c>
       <c r="C119">
-        <v>0.1356</v>
+        <v>0.144</v>
       </c>
       <c r="D119">
-        <v>0.2527</v>
+        <v>0.3219</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3865</v>
+        <v>0.4624</v>
       </c>
       <c r="C120">
-        <v>0.134</v>
+        <v>0.1422</v>
       </c>
       <c r="D120">
-        <v>0.2526</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3846</v>
+        <v>0.4585</v>
       </c>
       <c r="C121">
-        <v>0.1319</v>
+        <v>0.1399</v>
       </c>
       <c r="D121">
-        <v>0.2527</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3817</v>
+        <v>0.4534</v>
       </c>
       <c r="C122">
-        <v>0.1285</v>
+        <v>0.1363</v>
       </c>
       <c r="D122">
-        <v>0.2532</v>
+        <v>0.3171</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.379</v>
+        <v>0.4481</v>
       </c>
       <c r="C123">
-        <v>0.1248</v>
+        <v>0.1322</v>
       </c>
       <c r="D123">
-        <v>0.2542</v>
+        <v>0.3159</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.378</v>
+        <v>0.4447</v>
       </c>
       <c r="C124">
-        <v>0.1225</v>
+        <v>0.1297</v>
       </c>
       <c r="D124">
-        <v>0.2556</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.378</v>
+        <v>0.442</v>
       </c>
       <c r="C125">
-        <v>0.1205</v>
+        <v>0.1276</v>
       </c>
       <c r="D125">
-        <v>0.2575</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.378</v>
+        <v>0.4393</v>
       </c>
       <c r="C126">
-        <v>0.1183</v>
+        <v>0.1251</v>
       </c>
       <c r="D126">
-        <v>0.2597</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3783</v>
+        <v>0.4367</v>
       </c>
       <c r="C127">
-        <v>0.116</v>
+        <v>0.1226</v>
       </c>
       <c r="D127">
-        <v>0.2623</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3791</v>
+        <v>0.4345</v>
       </c>
       <c r="C128">
-        <v>0.1138</v>
+        <v>0.1203</v>
       </c>
       <c r="D128">
-        <v>0.2652</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3797</v>
+        <v>0.4321</v>
       </c>
       <c r="C129">
-        <v>0.1116</v>
+        <v>0.1178</v>
       </c>
       <c r="D129">
-        <v>0.2681</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3805</v>
+        <v>0.4298</v>
       </c>
       <c r="C130">
-        <v>0.1093</v>
+        <v>0.1153</v>
       </c>
       <c r="D130">
-        <v>0.2712</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3816</v>
+        <v>0.4277</v>
       </c>
       <c r="C131">
-        <v>0.107</v>
+        <v>0.1127</v>
       </c>
       <c r="D131">
-        <v>0.2746</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3833</v>
+        <v>0.4263</v>
       </c>
       <c r="C132">
-        <v>0.1051</v>
+        <v>0.1107</v>
       </c>
       <c r="D132">
-        <v>0.2781</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3848</v>
+        <v>0.4246</v>
       </c>
       <c r="C133">
-        <v>0.103</v>
+        <v>0.1084</v>
       </c>
       <c r="D133">
-        <v>0.2817</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3866</v>
+        <v>0.4234</v>
       </c>
       <c r="C134">
-        <v>0.1013</v>
+        <v>0.1065</v>
       </c>
       <c r="D134">
-        <v>0.2853</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3888</v>
+        <v>0.4226</v>
       </c>
       <c r="C135">
-        <v>0.09950000000000001</v>
+        <v>0.1045</v>
       </c>
       <c r="D135">
-        <v>0.2893</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3925</v>
+        <v>0.4234</v>
       </c>
       <c r="C136">
-        <v>0.0992</v>
+        <v>0.1041</v>
       </c>
       <c r="D136">
-        <v>0.2933</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3955</v>
+        <v>0.4236</v>
       </c>
       <c r="C137">
-        <v>0.0985</v>
+        <v>0.1033</v>
       </c>
       <c r="D137">
-        <v>0.2971</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3988</v>
+        <v>0.4241</v>
       </c>
       <c r="C138">
-        <v>0.0982</v>
+        <v>0.1029</v>
       </c>
       <c r="D138">
-        <v>0.3006</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4019</v>
+        <v>0.4243</v>
       </c>
       <c r="C139">
-        <v>0.0979</v>
+        <v>0.1026</v>
       </c>
       <c r="D139">
-        <v>0.3039</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4046</v>
+        <v>0.4241</v>
       </c>
       <c r="C140">
-        <v>0.0975</v>
+        <v>0.102</v>
       </c>
       <c r="D140">
-        <v>0.3071</v>
+        <v>0.3221</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4077</v>
+        <v>0.4244</v>
       </c>
       <c r="C141">
-        <v>0.0977</v>
+        <v>0.1021</v>
       </c>
       <c r="D141">
-        <v>0.31</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4102</v>
+        <v>0.4239</v>
       </c>
       <c r="C142">
-        <v>0.0975</v>
+        <v>0.1019</v>
       </c>
       <c r="D142">
-        <v>0.3127</v>
+        <v>0.3221</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4131</v>
+        <v>0.4239</v>
       </c>
       <c r="C143">
-        <v>0.0979</v>
+        <v>0.1022</v>
       </c>
       <c r="D143">
-        <v>0.3151</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4154</v>
+        <v>0.4232</v>
       </c>
       <c r="C144">
-        <v>0.098</v>
+        <v>0.1023</v>
       </c>
       <c r="D144">
-        <v>0.3173</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4175</v>
+        <v>0.4222</v>
       </c>
       <c r="C145">
-        <v>0.0982</v>
+        <v>0.1024</v>
       </c>
       <c r="D145">
-        <v>0.3193</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.4189</v>
+        <v>0.4205</v>
       </c>
       <c r="C146">
-        <v>0.0979</v>
+        <v>0.1019</v>
       </c>
       <c r="D146">
-        <v>0.3211</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4211</v>
+        <v>0.4196</v>
       </c>
       <c r="C147">
-        <v>0.0985</v>
+        <v>0.1025</v>
       </c>
       <c r="D147">
-        <v>0.3226</v>
+        <v>0.3171</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4234</v>
+        <v>0.4189</v>
       </c>
       <c r="C148">
-        <v>0.09950000000000001</v>
+        <v>0.1035</v>
       </c>
       <c r="D148">
-        <v>0.3239</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4247</v>
+        <v>0.4171</v>
       </c>
       <c r="C149">
-        <v>0.0997</v>
+        <v>0.1036</v>
       </c>
       <c r="D149">
-        <v>0.325</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4258</v>
+        <v>0.415</v>
       </c>
       <c r="C150">
-        <v>0.09959999999999999</v>
+        <v>0.1034</v>
       </c>
       <c r="D150">
-        <v>0.3262</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4268</v>
+        <v>0.4128</v>
       </c>
       <c r="C151">
-        <v>0.09959999999999999</v>
+        <v>0.1033</v>
       </c>
       <c r="D151">
-        <v>0.3271</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4294</v>
+        <v>0.4116</v>
       </c>
       <c r="C152">
-        <v>0.0993</v>
+        <v>0.1029</v>
       </c>
       <c r="D152">
-        <v>0.3301</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4327</v>
+        <v>0.411</v>
       </c>
       <c r="C153">
-        <v>0.0997</v>
+        <v>0.1032</v>
       </c>
       <c r="D153">
-        <v>0.3331</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4387</v>
+        <v>0.4124</v>
       </c>
       <c r="C154">
-        <v>0.1003</v>
+        <v>0.1037</v>
       </c>
       <c r="D154">
-        <v>0.3384</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4442</v>
+        <v>0.4133</v>
       </c>
       <c r="C155">
-        <v>0.1011</v>
+        <v>0.1045</v>
       </c>
       <c r="D155">
-        <v>0.3431</v>
+        <v>0.3089</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.453</v>
+        <v>0.417</v>
       </c>
       <c r="C156">
-        <v>0.1027</v>
+        <v>0.106</v>
       </c>
       <c r="D156">
-        <v>0.3504</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4626</v>
+        <v>0.4214</v>
       </c>
       <c r="C157">
-        <v>0.105</v>
+        <v>0.1084</v>
       </c>
       <c r="D157">
-        <v>0.3576</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.472</v>
+        <v>0.4257</v>
       </c>
       <c r="C158">
-        <v>0.1075</v>
+        <v>0.1109</v>
       </c>
       <c r="D158">
-        <v>0.3645</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4803</v>
+        <v>0.4292</v>
       </c>
       <c r="C159">
-        <v>0.1097</v>
+        <v>0.1131</v>
       </c>
       <c r="D159">
-        <v>0.3706</v>
+        <v>0.3161</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4874</v>
+        <v>0.4316</v>
       </c>
       <c r="C160">
-        <v>0.1113</v>
+        <v>0.1147</v>
       </c>
       <c r="D160">
-        <v>0.3761</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.4923</v>
+        <v>0.432</v>
       </c>
       <c r="C161">
-        <v>0.1116</v>
+        <v>0.1149</v>
       </c>
       <c r="D161">
-        <v>0.3807</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4983</v>
+        <v>0.4337</v>
       </c>
       <c r="C162">
-        <v>0.113</v>
+        <v>0.1163</v>
       </c>
       <c r="D162">
-        <v>0.3853</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.5044</v>
+        <v>0.4352</v>
       </c>
       <c r="C163">
-        <v>0.1134</v>
+        <v>0.1166</v>
       </c>
       <c r="D163">
-        <v>0.391</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.5091</v>
+        <v>0.4355</v>
       </c>
       <c r="C164">
-        <v>0.1131</v>
+        <v>0.1163</v>
       </c>
       <c r="D164">
-        <v>0.3959</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.5128</v>
+        <v>0.4351</v>
       </c>
       <c r="C165">
-        <v>0.1128</v>
+        <v>0.1158</v>
       </c>
       <c r="D165">
-        <v>0.4001</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.5171</v>
+        <v>0.4354</v>
       </c>
       <c r="C166">
-        <v>0.1131</v>
+        <v>0.1161</v>
       </c>
       <c r="D166">
-        <v>0.404</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.5201</v>
+        <v>0.4346</v>
       </c>
       <c r="C167">
-        <v>0.1125</v>
+        <v>0.1154</v>
       </c>
       <c r="D167">
-        <v>0.4076</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.5212</v>
+        <v>0.4322</v>
       </c>
       <c r="C168">
-        <v>0.111</v>
+        <v>0.1137</v>
       </c>
       <c r="D168">
-        <v>0.4103</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5234</v>
+        <v>0.4308</v>
       </c>
       <c r="C169">
-        <v>0.11</v>
+        <v>0.1126</v>
       </c>
       <c r="D169">
-        <v>0.4134</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.5244</v>
+        <v>0.4288</v>
       </c>
       <c r="C170">
-        <v>0.1088</v>
+        <v>0.1114</v>
       </c>
       <c r="D170">
-        <v>0.4156</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5262</v>
+        <v>0.4275</v>
       </c>
       <c r="C171">
-        <v>0.1077</v>
+        <v>0.1101</v>
       </c>
       <c r="D171">
-        <v>0.4185</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.5251</v>
+        <v>0.4243</v>
       </c>
       <c r="C172">
-        <v>0.1066</v>
+        <v>0.1089</v>
       </c>
       <c r="D172">
-        <v>0.4185</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.5229</v>
+        <v>0.4204</v>
       </c>
       <c r="C173">
-        <v>0.1053</v>
+        <v>0.1075</v>
       </c>
       <c r="D173">
-        <v>0.4176</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.5167</v>
+        <v>0.4135</v>
       </c>
       <c r="C174">
-        <v>0.103</v>
+        <v>0.1051</v>
       </c>
       <c r="D174">
-        <v>0.4136</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.5122</v>
+        <v>0.4085</v>
       </c>
       <c r="C175">
-        <v>0.1013</v>
+        <v>0.1033</v>
       </c>
       <c r="D175">
-        <v>0.4109</v>
+        <v>0.3053</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.5034</v>
+        <v>0.4</v>
       </c>
       <c r="C176">
-        <v>0.098</v>
+        <v>0.0998</v>
       </c>
       <c r="D176">
-        <v>0.4054</v>
+        <v>0.3002</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4954</v>
+        <v>0.3922</v>
       </c>
       <c r="C177">
-        <v>0.09420000000000001</v>
+        <v>0.0958</v>
       </c>
       <c r="D177">
-        <v>0.4011</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.4861</v>
+        <v>0.3836</v>
       </c>
       <c r="C178">
-        <v>0.09</v>
+        <v>0.0914</v>
       </c>
       <c r="D178">
-        <v>0.3961</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.4784</v>
+        <v>0.3769</v>
       </c>
       <c r="C179">
-        <v>0.08690000000000001</v>
+        <v>0.0882</v>
       </c>
       <c r="D179">
-        <v>0.3914</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.4716</v>
+        <v>0.3715</v>
       </c>
       <c r="C180">
-        <v>0.0847</v>
+        <v>0.0859</v>
       </c>
       <c r="D180">
-        <v>0.3869</v>
+        <v>0.2857</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4672</v>
+        <v>0.3686</v>
       </c>
       <c r="C181">
-        <v>0.0837</v>
+        <v>0.0848</v>
       </c>
       <c r="D181">
-        <v>0.3835</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4612</v>
+        <v>0.3644</v>
       </c>
       <c r="C182">
-        <v>0.0819</v>
+        <v>0.0829</v>
       </c>
       <c r="D182">
-        <v>0.3793</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4534</v>
+        <v>0.3593</v>
       </c>
       <c r="C183">
-        <v>0.08019999999999999</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="D183">
-        <v>0.3733</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4461</v>
+        <v>0.3549</v>
       </c>
       <c r="C184">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="D184">
-        <v>0.3671</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4405</v>
+        <v>0.3525</v>
       </c>
       <c r="C185">
-        <v>0.0795</v>
+        <v>0.0805</v>
       </c>
       <c r="D185">
-        <v>0.361</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4363</v>
+        <v>0.3517</v>
       </c>
       <c r="C186">
-        <v>0.0808</v>
+        <v>0.0819</v>
       </c>
       <c r="D186">
-        <v>0.3555</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4394</v>
+        <v>0.358</v>
       </c>
       <c r="C187">
-        <v>0.0862</v>
+        <v>0.0876</v>
       </c>
       <c r="D187">
-        <v>0.3532</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4429</v>
+        <v>0.3648</v>
       </c>
       <c r="C188">
-        <v>0.0922</v>
+        <v>0.0939</v>
       </c>
       <c r="D188">
-        <v>0.3507</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4453</v>
+        <v>0.371</v>
       </c>
       <c r="C189">
-        <v>0.0982</v>
+        <v>0.1003</v>
       </c>
       <c r="D189">
-        <v>0.3471</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4478</v>
+        <v>0.3775</v>
       </c>
       <c r="C190">
-        <v>0.1046</v>
+        <v>0.107</v>
       </c>
       <c r="D190">
-        <v>0.3432</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4491</v>
+        <v>0.3831</v>
       </c>
       <c r="C191">
-        <v>0.1112</v>
+        <v>0.114</v>
       </c>
       <c r="D191">
-        <v>0.3379</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4507</v>
+        <v>0.389</v>
       </c>
       <c r="C192">
-        <v>0.118</v>
+        <v>0.1212</v>
       </c>
       <c r="D192">
-        <v>0.3326</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.453</v>
+        <v>0.3957</v>
       </c>
       <c r="C193">
-        <v>0.1255</v>
+        <v>0.1291</v>
       </c>
       <c r="D193">
-        <v>0.3275</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4564</v>
+        <v>0.4035</v>
       </c>
       <c r="C194">
-        <v>0.134</v>
+        <v>0.138</v>
       </c>
       <c r="D194">
-        <v>0.3224</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,13 +3866,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4594</v>
+        <v>0.411</v>
       </c>
       <c r="C195">
-        <v>0.1425</v>
+        <v>0.147</v>
       </c>
       <c r="D195">
-        <v>0.317</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4624</v>
+        <v>0.4184</v>
       </c>
       <c r="C196">
-        <v>0.1512</v>
+        <v>0.1561</v>
       </c>
       <c r="D196">
-        <v>0.3113</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4635</v>
+        <v>0.4242</v>
       </c>
       <c r="C197">
-        <v>0.1596</v>
+        <v>0.165</v>
       </c>
       <c r="D197">
-        <v>0.3038</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4647</v>
+        <v>0.4298</v>
       </c>
       <c r="C198">
-        <v>0.1674</v>
+        <v>0.1733</v>
       </c>
       <c r="D198">
-        <v>0.2972</v>
+        <v>0.2565</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4644</v>
+        <v>0.4339</v>
       </c>
       <c r="C199">
-        <v>0.1743</v>
+        <v>0.1805</v>
       </c>
       <c r="D199">
-        <v>0.2901</v>
+        <v>0.2534</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4636</v>
+        <v>0.4374</v>
       </c>
       <c r="C200">
-        <v>0.1808</v>
+        <v>0.1874</v>
       </c>
       <c r="D200">
-        <v>0.2828</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4624</v>
+        <v>0.4403</v>
       </c>
       <c r="C201">
-        <v>0.187</v>
+        <v>0.194</v>
       </c>
       <c r="D201">
-        <v>0.2754</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.462</v>
+        <v>0.4437</v>
       </c>
       <c r="C202">
-        <v>0.1933</v>
+        <v>0.2006</v>
       </c>
       <c r="D202">
-        <v>0.2687</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4619</v>
+        <v>0.4475</v>
       </c>
       <c r="C203">
-        <v>0.2</v>
+        <v>0.2077</v>
       </c>
       <c r="D203">
-        <v>0.2619</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4616</v>
+        <v>0.4508</v>
       </c>
       <c r="C204">
-        <v>0.2062</v>
+        <v>0.2143</v>
       </c>
       <c r="D204">
-        <v>0.2554</v>
+        <v>0.2365</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4601</v>
+        <v>0.4522</v>
       </c>
       <c r="C205">
-        <v>0.2103</v>
+        <v>0.2186</v>
       </c>
       <c r="D205">
-        <v>0.2498</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4574</v>
+        <v>0.4527</v>
       </c>
       <c r="C206">
-        <v>0.2142</v>
+        <v>0.2228</v>
       </c>
       <c r="D206">
-        <v>0.2432</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4464</v>
+        <v>0.4452</v>
       </c>
       <c r="C207">
-        <v>0.2132</v>
+        <v>0.2218</v>
       </c>
       <c r="D207">
-        <v>0.2332</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4352</v>
+        <v>0.4371</v>
       </c>
       <c r="C208">
-        <v>0.2114</v>
+        <v>0.2198</v>
       </c>
       <c r="D208">
-        <v>0.2238</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4244</v>
+        <v>0.4291</v>
       </c>
       <c r="C209">
-        <v>0.2094</v>
+        <v>0.2178</v>
       </c>
       <c r="D209">
-        <v>0.215</v>
+        <v>0.2113</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4136</v>
+        <v>0.4209</v>
       </c>
       <c r="C210">
-        <v>0.2068</v>
+        <v>0.2152</v>
       </c>
       <c r="D210">
-        <v>0.2068</v>
+        <v>0.2057</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.413</v>
+        <v>0.4207</v>
       </c>
       <c r="C211">
-        <v>0.2052</v>
+        <v>0.2135</v>
       </c>
       <c r="D211">
-        <v>0.2079</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4126</v>
+        <v>0.4204</v>
       </c>
       <c r="C212">
-        <v>0.2034</v>
+        <v>0.2117</v>
       </c>
       <c r="D212">
-        <v>0.2091</v>
+        <v>0.2087</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4131</v>
+        <v>0.4211</v>
       </c>
       <c r="C213">
-        <v>0.2028</v>
+        <v>0.211</v>
       </c>
       <c r="D213">
-        <v>0.2103</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4131</v>
+        <v>0.4212</v>
       </c>
       <c r="C214">
-        <v>0.2016</v>
+        <v>0.2098</v>
       </c>
       <c r="D214">
-        <v>0.2115</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4108</v>
+        <v>0.4193</v>
       </c>
       <c r="C215">
-        <v>0.1996</v>
+        <v>0.2077</v>
       </c>
       <c r="D215">
-        <v>0.2112</v>
+        <v>0.2116</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4075</v>
+        <v>0.4161</v>
       </c>
       <c r="C216">
-        <v>0.1968</v>
+        <v>0.2047</v>
       </c>
       <c r="D216">
-        <v>0.2107</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4042</v>
+        <v>0.413</v>
       </c>
       <c r="C217">
-        <v>0.1941</v>
+        <v>0.2019</v>
       </c>
       <c r="D217">
-        <v>0.21</v>
+        <v>0.2111</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4013</v>
+        <v>0.4103</v>
       </c>
       <c r="C218">
-        <v>0.1921</v>
+        <v>0.1998</v>
       </c>
       <c r="D218">
-        <v>0.2091</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3989</v>
+        <v>0.4078</v>
       </c>
       <c r="C219">
-        <v>0.1903</v>
+        <v>0.1979</v>
       </c>
       <c r="D219">
-        <v>0.2085</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3959</v>
+        <v>0.4046</v>
       </c>
       <c r="C220">
-        <v>0.1878</v>
+        <v>0.1952</v>
       </c>
       <c r="D220">
-        <v>0.2081</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3924</v>
+        <v>0.4011</v>
       </c>
       <c r="C221">
-        <v>0.1855</v>
+        <v>0.1928</v>
       </c>
       <c r="D221">
-        <v>0.2069</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3905</v>
+        <v>0.3991</v>
       </c>
       <c r="C222">
-        <v>0.1845</v>
+        <v>0.1917</v>
       </c>
       <c r="D222">
-        <v>0.206</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3886</v>
+        <v>0.397</v>
       </c>
       <c r="C223">
-        <v>0.1833</v>
+        <v>0.1904</v>
       </c>
       <c r="D223">
-        <v>0.2053</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3882</v>
+        <v>0.3962</v>
       </c>
       <c r="C224">
-        <v>0.183</v>
+        <v>0.19</v>
       </c>
       <c r="D224">
-        <v>0.2052</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3883</v>
+        <v>0.396</v>
       </c>
       <c r="C225">
-        <v>0.1833</v>
+        <v>0.1904</v>
       </c>
       <c r="D225">
-        <v>0.2049</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3894</v>
+        <v>0.3965</v>
       </c>
       <c r="C226">
-        <v>0.184</v>
+        <v>0.191</v>
       </c>
       <c r="D226">
-        <v>0.2054</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3933</v>
+        <v>0.3999</v>
       </c>
       <c r="C227">
-        <v>0.1871</v>
+        <v>0.1943</v>
       </c>
       <c r="D227">
-        <v>0.2062</v>
+        <v>0.2057</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.3985</v>
+        <v>0.4046</v>
       </c>
       <c r="C228">
-        <v>0.191</v>
+        <v>0.1984</v>
       </c>
       <c r="D228">
-        <v>0.2075</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4046</v>
+        <v>0.4099</v>
       </c>
       <c r="C229">
-        <v>0.1954</v>
+        <v>0.203</v>
       </c>
       <c r="D229">
-        <v>0.2092</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4125</v>
+        <v>0.4169</v>
       </c>
       <c r="C230">
-        <v>0.2009</v>
+        <v>0.2087</v>
       </c>
       <c r="D230">
-        <v>0.2116</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4109</v>
+        <v>0.4162</v>
       </c>
       <c r="C231">
-        <v>0.2049</v>
+        <v>0.2128</v>
       </c>
       <c r="D231">
-        <v>0.206</v>
+        <v>0.2034</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4087</v>
+        <v>0.4146</v>
       </c>
       <c r="C232">
-        <v>0.2077</v>
+        <v>0.2157</v>
       </c>
       <c r="D232">
-        <v>0.2011</v>
+        <v>0.1989</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4063</v>
+        <v>0.4125</v>
       </c>
       <c r="C233">
-        <v>0.2094</v>
+        <v>0.2175</v>
       </c>
       <c r="D233">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.404</v>
+        <v>0.4103</v>
       </c>
       <c r="C234">
-        <v>0.2107</v>
+        <v>0.2188</v>
       </c>
       <c r="D234">
-        <v>0.1934</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4027</v>
+        <v>0.4088</v>
       </c>
       <c r="C235">
-        <v>0.2121</v>
+        <v>0.2203</v>
       </c>
       <c r="D235">
-        <v>0.1905</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.402</v>
+        <v>0.4079</v>
       </c>
       <c r="C236">
-        <v>0.2138</v>
+        <v>0.222</v>
       </c>
       <c r="D236">
-        <v>0.1882</v>
+        <v>0.1859</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4018</v>
+        <v>0.4073</v>
       </c>
       <c r="C237">
-        <v>0.2153</v>
+        <v>0.2236</v>
       </c>
       <c r="D237">
-        <v>0.1865</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4021</v>
+        <v>0.4072</v>
       </c>
       <c r="C238">
-        <v>0.217</v>
+        <v>0.2252</v>
       </c>
       <c r="D238">
-        <v>0.1852</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4022</v>
+        <v>0.4067</v>
       </c>
       <c r="C239">
-        <v>0.2179</v>
+        <v>0.2262</v>
       </c>
       <c r="D239">
-        <v>0.1843</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,13 +4496,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4034</v>
+        <v>0.4072</v>
       </c>
       <c r="C240">
-        <v>0.2196</v>
+        <v>0.2279</v>
       </c>
       <c r="D240">
-        <v>0.1838</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4049</v>
+        <v>0.408</v>
       </c>
       <c r="C241">
-        <v>0.2211</v>
+        <v>0.2294</v>
       </c>
       <c r="D241">
-        <v>0.1839</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4062</v>
+        <v>0.4083</v>
       </c>
       <c r="C242">
-        <v>0.2219</v>
+        <v>0.2302</v>
       </c>
       <c r="D242">
-        <v>0.1843</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4075</v>
+        <v>0.4086</v>
       </c>
       <c r="C243">
-        <v>0.2225</v>
+        <v>0.2308</v>
       </c>
       <c r="D243">
-        <v>0.185</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>0.4087</v>
       </c>
       <c r="C244">
-        <v>0.223</v>
+        <v>0.2313</v>
       </c>
       <c r="D244">
-        <v>0.1857</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4101</v>
+        <v>0.409</v>
       </c>
       <c r="C245">
-        <v>0.2235</v>
+        <v>0.2317</v>
       </c>
       <c r="D245">
-        <v>0.1866</v>
+        <v>0.1773</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4108</v>
+        <v>0.4086</v>
       </c>
       <c r="C246">
-        <v>0.2231</v>
+        <v>0.2313</v>
       </c>
       <c r="D246">
-        <v>0.1877</v>
+        <v>0.1773</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4101</v>
+        <v>0.4066</v>
       </c>
       <c r="C247">
-        <v>0.2212</v>
+        <v>0.2292</v>
       </c>
       <c r="D247">
-        <v>0.1889</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4087</v>
+        <v>0.404</v>
       </c>
       <c r="C248">
-        <v>0.2188</v>
+        <v>0.2266</v>
       </c>
       <c r="D248">
-        <v>0.1899</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4065</v>
+        <v>0.4004</v>
       </c>
       <c r="C249">
-        <v>0.2151</v>
+        <v>0.2227</v>
       </c>
       <c r="D249">
-        <v>0.1914</v>
+        <v>0.1777</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.4041</v>
+        <v>0.3966</v>
       </c>
       <c r="C250">
-        <v>0.2112</v>
+        <v>0.2185</v>
       </c>
       <c r="D250">
-        <v>0.1929</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.4012</v>
+        <v>0.3924</v>
       </c>
       <c r="C251">
-        <v>0.207</v>
+        <v>0.214</v>
       </c>
       <c r="D251">
-        <v>0.1942</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.399</v>
+        <v>0.3889</v>
       </c>
       <c r="C252">
-        <v>0.2035</v>
+        <v>0.2102</v>
       </c>
       <c r="D252">
-        <v>0.1955</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3957</v>
+        <v>0.3844</v>
       </c>
       <c r="C253">
-        <v>0.1992</v>
+        <v>0.2056</v>
       </c>
       <c r="D253">
-        <v>0.1965</v>
+        <v>0.1788</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2011 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2011 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2261</v>
+        <v>0.2243</v>
       </c>
       <c r="C2">
-        <v>0.08210000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="D2">
-        <v>0.1441</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2316</v>
+        <v>0.2298</v>
       </c>
       <c r="C3">
         <v>0.08400000000000001</v>
       </c>
       <c r="D3">
-        <v>0.1475</v>
+        <v>0.1458</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2487</v>
+        <v>0.2469</v>
       </c>
       <c r="C4">
-        <v>0.0935</v>
+        <v>0.0934</v>
       </c>
       <c r="D4">
-        <v>0.1553</v>
+        <v>0.1535</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2659</v>
+        <v>0.2641</v>
       </c>
       <c r="C5">
-        <v>0.103</v>
+        <v>0.1029</v>
       </c>
       <c r="D5">
-        <v>0.163</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2829</v>
+        <v>0.281</v>
       </c>
       <c r="C6">
-        <v>0.1124</v>
+        <v>0.1123</v>
       </c>
       <c r="D6">
-        <v>0.1704</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2993</v>
+        <v>0.2975</v>
       </c>
       <c r="C7">
-        <v>0.1221</v>
+        <v>0.122</v>
       </c>
       <c r="D7">
-        <v>0.1772</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3155</v>
+        <v>0.3137</v>
       </c>
       <c r="C8">
-        <v>0.132</v>
+        <v>0.1319</v>
       </c>
       <c r="D8">
-        <v>0.1835</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3304</v>
+        <v>0.3286</v>
       </c>
       <c r="C9">
-        <v>0.1411</v>
+        <v>0.141</v>
       </c>
       <c r="D9">
-        <v>0.1893</v>
+        <v>0.1876</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3448</v>
+        <v>0.3431</v>
       </c>
       <c r="C10">
-        <v>0.1503</v>
+        <v>0.1501</v>
       </c>
       <c r="D10">
-        <v>0.1945</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3582</v>
+        <v>0.3566</v>
       </c>
       <c r="C11">
-        <v>0.1588</v>
+        <v>0.1587</v>
       </c>
       <c r="D11">
-        <v>0.1994</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.372</v>
+        <v>0.3705</v>
       </c>
       <c r="C12">
-        <v>0.1675</v>
+        <v>0.1674</v>
       </c>
       <c r="D12">
-        <v>0.2045</v>
+        <v>0.2032</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3845</v>
+        <v>0.3831</v>
       </c>
       <c r="C13">
-        <v>0.1753</v>
+        <v>0.1752</v>
       </c>
       <c r="D13">
-        <v>0.2092</v>
+        <v>0.2079</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3964</v>
+        <v>0.3951</v>
       </c>
       <c r="C14">
-        <v>0.1826</v>
+        <v>0.1825</v>
       </c>
       <c r="D14">
-        <v>0.2138</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4075</v>
+        <v>0.4062</v>
       </c>
       <c r="C15">
-        <v>0.1888</v>
+        <v>0.1887</v>
       </c>
       <c r="D15">
-        <v>0.2186</v>
+        <v>0.2175</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4174</v>
+        <v>0.4162</v>
       </c>
       <c r="C16">
-        <v>0.1941</v>
+        <v>0.194</v>
       </c>
       <c r="D16">
-        <v>0.2233</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4266</v>
+        <v>0.4255</v>
       </c>
       <c r="C17">
-        <v>0.1993</v>
+        <v>0.1992</v>
       </c>
       <c r="D17">
-        <v>0.2273</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4345</v>
+        <v>0.4335</v>
       </c>
       <c r="C18">
-        <v>0.204</v>
+        <v>0.2039</v>
       </c>
       <c r="D18">
-        <v>0.2305</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4419</v>
+        <v>0.4409</v>
       </c>
       <c r="C19">
-        <v>0.2086</v>
+        <v>0.2084</v>
       </c>
       <c r="D19">
-        <v>0.2333</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4507</v>
+        <v>0.4498</v>
       </c>
       <c r="C20">
-        <v>0.2126</v>
+        <v>0.2125</v>
       </c>
       <c r="D20">
-        <v>0.2381</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4588</v>
+        <v>0.4578</v>
       </c>
       <c r="C21">
-        <v>0.2166</v>
+        <v>0.2164</v>
       </c>
       <c r="D21">
-        <v>0.2422</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4662</v>
+        <v>0.4653</v>
       </c>
       <c r="C22">
-        <v>0.2204</v>
+        <v>0.2203</v>
       </c>
       <c r="D22">
-        <v>0.2457</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4707</v>
+        <v>0.4699</v>
       </c>
       <c r="C23">
-        <v>0.2219</v>
+        <v>0.2218</v>
       </c>
       <c r="D23">
-        <v>0.2488</v>
+        <v>0.2481</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4633</v>
+        <v>0.4625</v>
       </c>
       <c r="C24">
-        <v>0.2162</v>
+        <v>0.2161</v>
       </c>
       <c r="D24">
-        <v>0.2471</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4556</v>
+        <v>0.455</v>
       </c>
       <c r="C25">
-        <v>0.2106</v>
+        <v>0.2104</v>
       </c>
       <c r="D25">
-        <v>0.245</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4481</v>
+        <v>0.4476</v>
       </c>
       <c r="C26">
-        <v>0.2053</v>
+        <v>0.2052</v>
       </c>
       <c r="D26">
-        <v>0.2428</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4394</v>
+        <v>0.439</v>
       </c>
       <c r="C27">
-        <v>0.1992</v>
+        <v>0.199</v>
       </c>
       <c r="D27">
-        <v>0.2403</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4306</v>
+        <v>0.4302</v>
       </c>
       <c r="C28">
-        <v>0.1928</v>
+        <v>0.1927</v>
       </c>
       <c r="D28">
-        <v>0.2378</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4225</v>
+        <v>0.4221</v>
       </c>
       <c r="C29">
-        <v>0.1867</v>
+        <v>0.1866</v>
       </c>
       <c r="D29">
-        <v>0.2358</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4154</v>
+        <v>0.4151</v>
       </c>
       <c r="C30">
-        <v>0.1812</v>
+        <v>0.1811</v>
       </c>
       <c r="D30">
-        <v>0.2341</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.409</v>
+        <v>0.4087</v>
       </c>
       <c r="C31">
-        <v>0.1764</v>
+        <v>0.1763</v>
       </c>
       <c r="D31">
-        <v>0.2326</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.403</v>
+        <v>0.4028</v>
       </c>
       <c r="C32">
-        <v>0.1721</v>
+        <v>0.172</v>
       </c>
       <c r="D32">
-        <v>0.231</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3981</v>
+        <v>0.3979</v>
       </c>
       <c r="C33">
-        <v>0.1686</v>
+        <v>0.1685</v>
       </c>
       <c r="D33">
-        <v>0.2295</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3937</v>
+        <v>0.3935</v>
       </c>
       <c r="C34">
         <v>0.1656</v>
       </c>
       <c r="D34">
-        <v>0.2281</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3897</v>
+        <v>0.3894</v>
       </c>
       <c r="C35">
         <v>0.1632</v>
       </c>
       <c r="D35">
-        <v>0.2264</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3866</v>
+        <v>0.3864</v>
       </c>
       <c r="C36">
-        <v>0.1618</v>
+        <v>0.1617</v>
       </c>
       <c r="D36">
-        <v>0.2249</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3841</v>
+        <v>0.3839</v>
       </c>
       <c r="C37">
         <v>0.1607</v>
       </c>
       <c r="D37">
-        <v>0.2234</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3821</v>
+        <v>0.3818</v>
       </c>
       <c r="C38">
-        <v>0.16</v>
+        <v>0.1599</v>
       </c>
       <c r="D38">
-        <v>0.2221</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3811</v>
+        <v>0.3808</v>
       </c>
       <c r="C39">
-        <v>0.1599</v>
+        <v>0.1598</v>
       </c>
       <c r="D39">
-        <v>0.2212</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3784</v>
+        <v>0.3782</v>
       </c>
       <c r="C40">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D40">
-        <v>0.2182</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3762</v>
+        <v>0.376</v>
       </c>
       <c r="C41">
         <v>0.1605</v>
       </c>
       <c r="D41">
-        <v>0.2157</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3751</v>
+        <v>0.375</v>
       </c>
       <c r="C42">
-        <v>0.1608</v>
+        <v>0.1607</v>
       </c>
       <c r="D42">
-        <v>0.2144</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3745</v>
+        <v>0.3743</v>
       </c>
       <c r="C43">
-        <v>0.161</v>
+        <v>0.1609</v>
       </c>
       <c r="D43">
-        <v>0.2135</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.374</v>
+        <v>0.3738</v>
       </c>
       <c r="C44">
-        <v>0.1608</v>
+        <v>0.1607</v>
       </c>
       <c r="D44">
-        <v>0.2132</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3744</v>
+        <v>0.3741</v>
       </c>
       <c r="C45">
-        <v>0.1603</v>
+        <v>0.1602</v>
       </c>
       <c r="D45">
-        <v>0.2142</v>
+        <v>0.2139</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.375</v>
+        <v>0.3747</v>
       </c>
       <c r="C46">
         <v>0.1594</v>
       </c>
       <c r="D46">
-        <v>0.2156</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3755</v>
+        <v>0.3751</v>
       </c>
       <c r="C47">
         <v>0.1581</v>
       </c>
       <c r="D47">
-        <v>0.2174</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3766</v>
+        <v>0.3761</v>
       </c>
       <c r="C48">
-        <v>0.1574</v>
+        <v>0.1573</v>
       </c>
       <c r="D48">
-        <v>0.2192</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3774</v>
+        <v>0.3769</v>
       </c>
       <c r="C49">
         <v>0.1563</v>
       </c>
       <c r="D49">
-        <v>0.2211</v>
+        <v>0.2207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3779</v>
+        <v>0.3774</v>
       </c>
       <c r="C50">
         <v>0.1548</v>
       </c>
       <c r="D50">
-        <v>0.2231</v>
+        <v>0.2226</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3789</v>
+        <v>0.3783</v>
       </c>
       <c r="C51">
         <v>0.1538</v>
       </c>
       <c r="D51">
-        <v>0.2251</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3797</v>
+        <v>0.3791</v>
       </c>
       <c r="C52">
         <v>0.1523</v>
       </c>
       <c r="D52">
-        <v>0.2275</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3807</v>
+        <v>0.3801</v>
       </c>
       <c r="C53">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="D53">
-        <v>0.2301</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3829</v>
+        <v>0.3821</v>
       </c>
       <c r="C54">
-        <v>0.1494</v>
+        <v>0.1493</v>
       </c>
       <c r="D54">
-        <v>0.2335</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3854</v>
+        <v>0.3845</v>
       </c>
       <c r="C55">
         <v>0.1485</v>
       </c>
       <c r="D55">
-        <v>0.2368</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.389</v>
+        <v>0.3881</v>
       </c>
       <c r="C56">
-        <v>0.1479</v>
+        <v>0.1478</v>
       </c>
       <c r="D56">
-        <v>0.2411</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.392</v>
+        <v>0.3911</v>
       </c>
       <c r="C57">
-        <v>0.1468</v>
+        <v>0.1467</v>
       </c>
       <c r="D57">
-        <v>0.2453</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3954</v>
+        <v>0.3944</v>
       </c>
       <c r="C58">
-        <v>0.146</v>
+        <v>0.1459</v>
       </c>
       <c r="D58">
-        <v>0.2494</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3972</v>
+        <v>0.3962</v>
       </c>
       <c r="C59">
         <v>0.1442</v>
       </c>
       <c r="D59">
-        <v>0.253</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3982</v>
+        <v>0.3971</v>
       </c>
       <c r="C60">
         <v>0.1419</v>
       </c>
       <c r="D60">
-        <v>0.2562</v>
+        <v>0.2552</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3986</v>
+        <v>0.3975</v>
       </c>
       <c r="C61">
         <v>0.1397</v>
       </c>
       <c r="D61">
-        <v>0.2589</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3981</v>
+        <v>0.397</v>
       </c>
       <c r="C62">
-        <v>0.1373</v>
+        <v>0.1372</v>
       </c>
       <c r="D62">
-        <v>0.2608</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3976</v>
+        <v>0.3964</v>
       </c>
       <c r="C63">
         <v>0.1351</v>
       </c>
       <c r="D63">
-        <v>0.2624</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3962</v>
+        <v>0.3951</v>
       </c>
       <c r="C64">
         <v>0.1326</v>
       </c>
       <c r="D64">
-        <v>0.2636</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3941</v>
+        <v>0.393</v>
       </c>
       <c r="C65">
-        <v>0.1305</v>
+        <v>0.1304</v>
       </c>
       <c r="D65">
-        <v>0.2637</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3924</v>
+        <v>0.3913</v>
       </c>
       <c r="C66">
         <v>0.1289</v>
       </c>
       <c r="D66">
-        <v>0.2635</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3915</v>
+        <v>0.3904</v>
       </c>
       <c r="C67">
         <v>0.1281</v>
       </c>
       <c r="D67">
-        <v>0.2633</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3897</v>
+        <v>0.3886</v>
       </c>
       <c r="C68">
         <v>0.1267</v>
       </c>
       <c r="D68">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3885</v>
+        <v>0.3873</v>
       </c>
       <c r="C69">
         <v>0.1257</v>
       </c>
       <c r="D69">
-        <v>0.2628</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3871</v>
+        <v>0.386</v>
       </c>
       <c r="C70">
         <v>0.1246</v>
       </c>
       <c r="D70">
-        <v>0.2625</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3855</v>
+        <v>0.3843</v>
       </c>
       <c r="C71">
-        <v>0.1235</v>
+        <v>0.1234</v>
       </c>
       <c r="D71">
-        <v>0.262</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3833</v>
+        <v>0.3821</v>
       </c>
       <c r="C72">
-        <v>0.1221</v>
+        <v>0.122</v>
       </c>
       <c r="D72">
-        <v>0.2612</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3816</v>
+        <v>0.3804</v>
       </c>
       <c r="C73">
-        <v>0.1214</v>
+        <v>0.1213</v>
       </c>
       <c r="D73">
-        <v>0.2603</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3781</v>
+        <v>0.3769</v>
       </c>
       <c r="C74">
-        <v>0.1196</v>
+        <v>0.1195</v>
       </c>
       <c r="D74">
-        <v>0.2585</v>
+        <v>0.2574</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3746</v>
+        <v>0.3734</v>
       </c>
       <c r="C75">
-        <v>0.1176</v>
+        <v>0.1175</v>
       </c>
       <c r="D75">
-        <v>0.257</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3702</v>
+        <v>0.3691</v>
       </c>
       <c r="C76">
         <v>0.1155</v>
       </c>
       <c r="D76">
-        <v>0.2547</v>
+        <v>0.2536</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3663</v>
+        <v>0.3651</v>
       </c>
       <c r="C77">
         <v>0.1135</v>
       </c>
       <c r="D77">
-        <v>0.2528</v>
+        <v>0.2516</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3635</v>
+        <v>0.3623</v>
       </c>
       <c r="C78">
         <v>0.1126</v>
       </c>
       <c r="D78">
-        <v>0.2509</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3616</v>
+        <v>0.3604</v>
       </c>
       <c r="C79">
-        <v>0.1121</v>
+        <v>0.112</v>
       </c>
       <c r="D79">
-        <v>0.2495</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3605</v>
+        <v>0.3593</v>
       </c>
       <c r="C80">
         <v>0.1119</v>
       </c>
       <c r="D80">
-        <v>0.2486</v>
+        <v>0.2474</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3608</v>
+        <v>0.3595</v>
       </c>
       <c r="C81">
         <v>0.1119</v>
       </c>
       <c r="D81">
-        <v>0.2488</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3613</v>
+        <v>0.3601</v>
       </c>
       <c r="C82">
-        <v>0.1121</v>
+        <v>0.112</v>
       </c>
       <c r="D82">
-        <v>0.2492</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3629</v>
+        <v>0.3616</v>
       </c>
       <c r="C83">
-        <v>0.1127</v>
+        <v>0.1126</v>
       </c>
       <c r="D83">
-        <v>0.2502</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3652</v>
+        <v>0.364</v>
       </c>
       <c r="C84">
         <v>0.1135</v>
       </c>
       <c r="D84">
-        <v>0.2518</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3678</v>
+        <v>0.3665</v>
       </c>
       <c r="C85">
         <v>0.1142</v>
       </c>
       <c r="D85">
-        <v>0.2536</v>
+        <v>0.2523</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.37</v>
+        <v>0.3687</v>
       </c>
       <c r="C86">
         <v>0.1143</v>
       </c>
       <c r="D86">
-        <v>0.2557</v>
+        <v>0.2545</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3727</v>
+        <v>0.3714</v>
       </c>
       <c r="C87">
         <v>0.1146</v>
       </c>
       <c r="D87">
-        <v>0.2582</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3763</v>
+        <v>0.3749</v>
       </c>
       <c r="C88">
         <v>0.1154</v>
       </c>
       <c r="D88">
-        <v>0.2609</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.382</v>
+        <v>0.3806</v>
       </c>
       <c r="C89">
         <v>0.1179</v>
       </c>
       <c r="D89">
-        <v>0.264</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3878</v>
+        <v>0.3864</v>
       </c>
       <c r="C90">
         <v>0.1206</v>
       </c>
       <c r="D90">
-        <v>0.2671</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3932</v>
+        <v>0.3918</v>
       </c>
       <c r="C91">
         <v>0.1226</v>
       </c>
       <c r="D91">
-        <v>0.2705</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3989</v>
+        <v>0.3975</v>
       </c>
       <c r="C92">
         <v>0.1248</v>
       </c>
       <c r="D92">
-        <v>0.274</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4042</v>
+        <v>0.4028</v>
       </c>
       <c r="C93">
         <v>0.1264</v>
       </c>
       <c r="D93">
-        <v>0.2778</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4108</v>
+        <v>0.4093</v>
       </c>
       <c r="C94">
-        <v>0.1292</v>
+        <v>0.1291</v>
       </c>
       <c r="D94">
-        <v>0.2816</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4175</v>
+        <v>0.416</v>
       </c>
       <c r="C95">
         <v>0.1315</v>
       </c>
       <c r="D95">
-        <v>0.286</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.424</v>
+        <v>0.4225</v>
       </c>
       <c r="C96">
         <v>0.1338</v>
       </c>
       <c r="D96">
-        <v>0.2902</v>
+        <v>0.2887</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4307</v>
+        <v>0.4291</v>
       </c>
       <c r="C97">
-        <v>0.1363</v>
+        <v>0.1362</v>
       </c>
       <c r="D97">
-        <v>0.2944</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.436</v>
+        <v>0.4344</v>
       </c>
       <c r="C98">
         <v>0.1376</v>
       </c>
       <c r="D98">
-        <v>0.2983</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4419</v>
+        <v>0.4403</v>
       </c>
       <c r="C99">
-        <v>0.1396</v>
+        <v>0.1395</v>
       </c>
       <c r="D99">
-        <v>0.3024</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4482</v>
+        <v>0.4465</v>
       </c>
       <c r="C100">
-        <v>0.1415</v>
+        <v>0.1414</v>
       </c>
       <c r="D100">
-        <v>0.3067</v>
+        <v>0.3051</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4539</v>
+        <v>0.4522</v>
       </c>
       <c r="C101">
-        <v>0.1435</v>
+        <v>0.1434</v>
       </c>
       <c r="D101">
-        <v>0.3104</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4604</v>
+        <v>0.4586</v>
       </c>
       <c r="C102">
-        <v>0.1465</v>
+        <v>0.1464</v>
       </c>
       <c r="D102">
-        <v>0.3139</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4666</v>
+        <v>0.4648</v>
       </c>
       <c r="C103">
-        <v>0.1497</v>
+        <v>0.1496</v>
       </c>
       <c r="D103">
-        <v>0.3169</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.471</v>
+        <v>0.4692</v>
       </c>
       <c r="C104">
-        <v>0.1515</v>
+        <v>0.1514</v>
       </c>
       <c r="D104">
-        <v>0.3195</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4746</v>
+        <v>0.4728</v>
       </c>
       <c r="C105">
-        <v>0.1529</v>
+        <v>0.1528</v>
       </c>
       <c r="D105">
-        <v>0.3217</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4778</v>
+        <v>0.476</v>
       </c>
       <c r="C106">
         <v>0.1542</v>
       </c>
       <c r="D106">
-        <v>0.3236</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4804</v>
+        <v>0.4785</v>
       </c>
       <c r="C107">
         <v>0.1552</v>
       </c>
       <c r="D107">
-        <v>0.3252</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4826</v>
+        <v>0.4808</v>
       </c>
       <c r="C108">
         <v>0.1562</v>
       </c>
       <c r="D108">
-        <v>0.3264</v>
+        <v>0.3246</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4827</v>
+        <v>0.4808</v>
       </c>
       <c r="C109">
         <v>0.1555</v>
       </c>
       <c r="D109">
-        <v>0.3272</v>
+        <v>0.3253</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4823</v>
+        <v>0.4805</v>
       </c>
       <c r="C110">
-        <v>0.1546</v>
+        <v>0.1545</v>
       </c>
       <c r="D110">
-        <v>0.3278</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4826</v>
+        <v>0.4807</v>
       </c>
       <c r="C111">
         <v>0.1544</v>
       </c>
       <c r="D111">
-        <v>0.3281</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4823</v>
+        <v>0.4804</v>
       </c>
       <c r="C112">
         <v>0.154</v>
       </c>
       <c r="D112">
-        <v>0.3283</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4814</v>
+        <v>0.4795</v>
       </c>
       <c r="C113">
-        <v>0.1533</v>
+        <v>0.1532</v>
       </c>
       <c r="D113">
-        <v>0.3281</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4797</v>
+        <v>0.4778</v>
       </c>
       <c r="C114">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="D114">
-        <v>0.3277</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4775</v>
+        <v>0.4756</v>
       </c>
       <c r="C115">
-        <v>0.1509</v>
+        <v>0.1508</v>
       </c>
       <c r="D115">
-        <v>0.3266</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4745</v>
+        <v>0.4726</v>
       </c>
       <c r="C116">
         <v>0.1492</v>
       </c>
       <c r="D116">
-        <v>0.3253</v>
+        <v>0.3235</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.4718</v>
+        <v>0.4699</v>
       </c>
       <c r="C117">
-        <v>0.1477</v>
+        <v>0.1476</v>
       </c>
       <c r="D117">
-        <v>0.3241</v>
+        <v>0.3222</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4691</v>
+        <v>0.4672</v>
       </c>
       <c r="C118">
         <v>0.146</v>
       </c>
       <c r="D118">
-        <v>0.323</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4659</v>
+        <v>0.464</v>
       </c>
       <c r="C119">
-        <v>0.144</v>
+        <v>0.1439</v>
       </c>
       <c r="D119">
-        <v>0.3219</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4624</v>
+        <v>0.4605</v>
       </c>
       <c r="C120">
-        <v>0.1422</v>
+        <v>0.1421</v>
       </c>
       <c r="D120">
-        <v>0.3202</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4585</v>
+        <v>0.4566</v>
       </c>
       <c r="C121">
         <v>0.1399</v>
       </c>
       <c r="D121">
-        <v>0.3186</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4534</v>
+        <v>0.4515</v>
       </c>
       <c r="C122">
-        <v>0.1363</v>
+        <v>0.1362</v>
       </c>
       <c r="D122">
-        <v>0.3171</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4481</v>
+        <v>0.4463</v>
       </c>
       <c r="C123">
         <v>0.1322</v>
       </c>
       <c r="D123">
-        <v>0.3159</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4447</v>
+        <v>0.4428</v>
       </c>
       <c r="C124">
         <v>0.1297</v>
       </c>
       <c r="D124">
-        <v>0.315</v>
+        <v>0.3131</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.442</v>
+        <v>0.4402</v>
       </c>
       <c r="C125">
-        <v>0.1276</v>
+        <v>0.1275</v>
       </c>
       <c r="D125">
-        <v>0.3145</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4393</v>
+        <v>0.4374</v>
       </c>
       <c r="C126">
         <v>0.1251</v>
       </c>
       <c r="D126">
-        <v>0.3141</v>
+        <v>0.3123</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4367</v>
+        <v>0.4348</v>
       </c>
       <c r="C127">
         <v>0.1226</v>
       </c>
       <c r="D127">
-        <v>0.314</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4345</v>
+        <v>0.4326</v>
       </c>
       <c r="C128">
-        <v>0.1203</v>
+        <v>0.1202</v>
       </c>
       <c r="D128">
-        <v>0.3142</v>
+        <v>0.3123</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4321</v>
+        <v>0.4301</v>
       </c>
       <c r="C129">
-        <v>0.1178</v>
+        <v>0.1177</v>
       </c>
       <c r="D129">
-        <v>0.3143</v>
+        <v>0.3124</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4298</v>
+        <v>0.4278</v>
       </c>
       <c r="C130">
         <v>0.1153</v>
       </c>
       <c r="D130">
-        <v>0.3145</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4277</v>
+        <v>0.4257</v>
       </c>
       <c r="C131">
         <v>0.1127</v>
       </c>
       <c r="D131">
-        <v>0.315</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4263</v>
+        <v>0.4243</v>
       </c>
       <c r="C132">
         <v>0.1107</v>
       </c>
       <c r="D132">
-        <v>0.3156</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4246</v>
+        <v>0.4226</v>
       </c>
       <c r="C133">
-        <v>0.1084</v>
+        <v>0.1083</v>
       </c>
       <c r="D133">
-        <v>0.3162</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4234</v>
+        <v>0.4214</v>
       </c>
       <c r="C134">
-        <v>0.1065</v>
+        <v>0.1064</v>
       </c>
       <c r="D134">
-        <v>0.317</v>
+        <v>0.3149</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4226</v>
+        <v>0.4205</v>
       </c>
       <c r="C135">
         <v>0.1045</v>
       </c>
       <c r="D135">
-        <v>0.3181</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4234</v>
+        <v>0.4213</v>
       </c>
       <c r="C136">
-        <v>0.1041</v>
+        <v>0.104</v>
       </c>
       <c r="D136">
-        <v>0.3193</v>
+        <v>0.3173</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4236</v>
+        <v>0.4215</v>
       </c>
       <c r="C137">
-        <v>0.1033</v>
+        <v>0.1032</v>
       </c>
       <c r="D137">
-        <v>0.3203</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4241</v>
+        <v>0.422</v>
       </c>
       <c r="C138">
         <v>0.1029</v>
       </c>
       <c r="D138">
-        <v>0.3212</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4243</v>
+        <v>0.4222</v>
       </c>
       <c r="C139">
-        <v>0.1026</v>
+        <v>0.1025</v>
       </c>
       <c r="D139">
-        <v>0.3218</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4241</v>
+        <v>0.422</v>
       </c>
       <c r="C140">
         <v>0.102</v>
       </c>
       <c r="D140">
-        <v>0.3221</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4244</v>
+        <v>0.4222</v>
       </c>
       <c r="C141">
         <v>0.1021</v>
       </c>
       <c r="D141">
-        <v>0.3223</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4239</v>
+        <v>0.4218</v>
       </c>
       <c r="C142">
-        <v>0.1019</v>
+        <v>0.1018</v>
       </c>
       <c r="D142">
-        <v>0.3221</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4239</v>
+        <v>0.4217</v>
       </c>
       <c r="C143">
         <v>0.1022</v>
       </c>
       <c r="D143">
-        <v>0.3216</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4232</v>
+        <v>0.421</v>
       </c>
       <c r="C144">
-        <v>0.1023</v>
+        <v>0.1022</v>
       </c>
       <c r="D144">
-        <v>0.3209</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4222</v>
+        <v>0.4201</v>
       </c>
       <c r="C145">
-        <v>0.1024</v>
+        <v>0.1023</v>
       </c>
       <c r="D145">
-        <v>0.3199</v>
+        <v>0.3177</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.4205</v>
+        <v>0.4184</v>
       </c>
       <c r="C146">
         <v>0.1019</v>
       </c>
       <c r="D146">
-        <v>0.3186</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4196</v>
+        <v>0.4175</v>
       </c>
       <c r="C147">
         <v>0.1025</v>
       </c>
       <c r="D147">
-        <v>0.3171</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4189</v>
+        <v>0.4167</v>
       </c>
       <c r="C148">
-        <v>0.1035</v>
+        <v>0.1034</v>
       </c>
       <c r="D148">
-        <v>0.3155</v>
+        <v>0.3133</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4171</v>
+        <v>0.415</v>
       </c>
       <c r="C149">
-        <v>0.1036</v>
+        <v>0.1035</v>
       </c>
       <c r="D149">
-        <v>0.3136</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.415</v>
+        <v>0.4129</v>
       </c>
       <c r="C150">
         <v>0.1034</v>
       </c>
       <c r="D150">
-        <v>0.3116</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4128</v>
+        <v>0.4106</v>
       </c>
       <c r="C151">
         <v>0.1033</v>
       </c>
       <c r="D151">
-        <v>0.3095</v>
+        <v>0.3073</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4116</v>
+        <v>0.4094</v>
       </c>
       <c r="C152">
         <v>0.1029</v>
       </c>
       <c r="D152">
-        <v>0.3087</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.411</v>
+        <v>0.4088</v>
       </c>
       <c r="C153">
-        <v>0.1032</v>
+        <v>0.1031</v>
       </c>
       <c r="D153">
-        <v>0.3078</v>
+        <v>0.3057</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4124</v>
+        <v>0.4102</v>
       </c>
       <c r="C154">
         <v>0.1037</v>
       </c>
       <c r="D154">
-        <v>0.3087</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4133</v>
+        <v>0.4111</v>
       </c>
       <c r="C155">
-        <v>0.1045</v>
+        <v>0.1044</v>
       </c>
       <c r="D155">
-        <v>0.3089</v>
+        <v>0.3067</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.417</v>
+        <v>0.4148</v>
       </c>
       <c r="C156">
         <v>0.106</v>
       </c>
       <c r="D156">
-        <v>0.311</v>
+        <v>0.3088</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4214</v>
+        <v>0.4192</v>
       </c>
       <c r="C157">
         <v>0.1084</v>
       </c>
       <c r="D157">
-        <v>0.313</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4257</v>
+        <v>0.4235</v>
       </c>
       <c r="C158">
         <v>0.1109</v>
       </c>
       <c r="D158">
-        <v>0.3148</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4292</v>
+        <v>0.427</v>
       </c>
       <c r="C159">
-        <v>0.1131</v>
+        <v>0.113</v>
       </c>
       <c r="D159">
-        <v>0.3161</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4316</v>
+        <v>0.4295</v>
       </c>
       <c r="C160">
         <v>0.1147</v>
       </c>
       <c r="D160">
-        <v>0.3169</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="C161">
-        <v>0.1149</v>
+        <v>0.1148</v>
       </c>
       <c r="D161">
-        <v>0.3172</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4337</v>
+        <v>0.4318</v>
       </c>
       <c r="C162">
         <v>0.1163</v>
       </c>
       <c r="D162">
-        <v>0.3174</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4352</v>
+        <v>0.4333</v>
       </c>
       <c r="C163">
         <v>0.1166</v>
       </c>
       <c r="D163">
-        <v>0.3186</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4355</v>
+        <v>0.4337</v>
       </c>
       <c r="C164">
-        <v>0.1163</v>
+        <v>0.1162</v>
       </c>
       <c r="D164">
-        <v>0.3192</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4351</v>
+        <v>0.4334</v>
       </c>
       <c r="C165">
         <v>0.1158</v>
       </c>
       <c r="D165">
-        <v>0.3193</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4354</v>
+        <v>0.4338</v>
       </c>
       <c r="C166">
-        <v>0.1161</v>
+        <v>0.116</v>
       </c>
       <c r="D166">
-        <v>0.3194</v>
+        <v>0.3177</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4346</v>
+        <v>0.433</v>
       </c>
       <c r="C167">
-        <v>0.1154</v>
+        <v>0.1153</v>
       </c>
       <c r="D167">
-        <v>0.3192</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4322</v>
+        <v>0.4307</v>
       </c>
       <c r="C168">
         <v>0.1137</v>
       </c>
       <c r="D168">
-        <v>0.3185</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4308</v>
+        <v>0.4295</v>
       </c>
       <c r="C169">
         <v>0.1126</v>
       </c>
       <c r="D169">
-        <v>0.3182</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4288</v>
+        <v>0.4275</v>
       </c>
       <c r="C170">
         <v>0.1114</v>
       </c>
       <c r="D170">
-        <v>0.3174</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4275</v>
+        <v>0.4263</v>
       </c>
       <c r="C171">
         <v>0.1101</v>
       </c>
       <c r="D171">
-        <v>0.3174</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4243</v>
+        <v>0.4232</v>
       </c>
       <c r="C172">
         <v>0.1089</v>
       </c>
       <c r="D172">
-        <v>0.3154</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.4204</v>
+        <v>0.4195</v>
       </c>
       <c r="C173">
         <v>0.1075</v>
       </c>
       <c r="D173">
-        <v>0.3129</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4135</v>
+        <v>0.4127</v>
       </c>
       <c r="C174">
         <v>0.1051</v>
       </c>
       <c r="D174">
-        <v>0.3084</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4085</v>
+        <v>0.4078</v>
       </c>
       <c r="C175">
         <v>0.1033</v>
       </c>
       <c r="D175">
-        <v>0.3053</v>
+        <v>0.3045</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.4</v>
+        <v>0.3994</v>
       </c>
       <c r="C176">
         <v>0.0998</v>
       </c>
       <c r="D176">
-        <v>0.3002</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3922</v>
+        <v>0.3917</v>
       </c>
       <c r="C177">
         <v>0.0958</v>
       </c>
       <c r="D177">
-        <v>0.2964</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3836</v>
+        <v>0.3832</v>
       </c>
       <c r="C178">
         <v>0.0914</v>
       </c>
       <c r="D178">
-        <v>0.2922</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3769</v>
+        <v>0.3765</v>
       </c>
       <c r="C179">
         <v>0.0882</v>
       </c>
       <c r="D179">
-        <v>0.2888</v>
+        <v>0.2883</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3715</v>
+        <v>0.3712</v>
       </c>
       <c r="C180">
         <v>0.0859</v>
       </c>
       <c r="D180">
-        <v>0.2857</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3686</v>
+        <v>0.3683</v>
       </c>
       <c r="C181">
-        <v>0.0848</v>
+        <v>0.0849</v>
       </c>
       <c r="D181">
-        <v>0.2838</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3644</v>
+        <v>0.3641</v>
       </c>
       <c r="C182">
         <v>0.0829</v>
       </c>
       <c r="D182">
-        <v>0.2815</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3593</v>
+        <v>0.359</v>
       </c>
       <c r="C183">
         <v>0.08119999999999999</v>
       </c>
       <c r="D183">
-        <v>0.2781</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3549</v>
+        <v>0.3547</v>
       </c>
       <c r="C184">
         <v>0.08</v>
       </c>
       <c r="D184">
-        <v>0.2749</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3525</v>
+        <v>0.3523</v>
       </c>
       <c r="C185">
         <v>0.0805</v>
       </c>
       <c r="D185">
-        <v>0.272</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3517</v>
+        <v>0.3516</v>
       </c>
       <c r="C186">
         <v>0.0819</v>
       </c>
       <c r="D186">
-        <v>0.2698</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.358</v>
+        <v>0.3578</v>
       </c>
       <c r="C187">
         <v>0.0876</v>
       </c>
       <c r="D187">
-        <v>0.2704</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3648</v>
+        <v>0.3647</v>
       </c>
       <c r="C188">
         <v>0.0939</v>
       </c>
       <c r="D188">
-        <v>0.2709</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.371</v>
+        <v>0.3708</v>
       </c>
       <c r="C189">
         <v>0.1003</v>
       </c>
       <c r="D189">
-        <v>0.2707</v>
+        <v>0.2706</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3775</v>
+        <v>0.3773</v>
       </c>
       <c r="C190">
         <v>0.107</v>
       </c>
       <c r="D190">
-        <v>0.2704</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3831</v>
+        <v>0.383</v>
       </c>
       <c r="C191">
         <v>0.114</v>
       </c>
       <c r="D191">
-        <v>0.2691</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3827,7 +3827,7 @@
         <v>0.389</v>
       </c>
       <c r="C192">
-        <v>0.1212</v>
+        <v>0.1211</v>
       </c>
       <c r="D192">
         <v>0.2678</v>
@@ -3841,7 +3841,7 @@
         <v>0.3957</v>
       </c>
       <c r="C193">
-        <v>0.1291</v>
+        <v>0.129</v>
       </c>
       <c r="D193">
         <v>0.2667</v>
@@ -3858,7 +3858,7 @@
         <v>0.138</v>
       </c>
       <c r="D194">
-        <v>0.2655</v>
+        <v>0.2656</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>0.411</v>
       </c>
       <c r="C195">
-        <v>0.147</v>
+        <v>0.1469</v>
       </c>
       <c r="D195">
-        <v>0.264</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4184</v>
+        <v>0.4185</v>
       </c>
       <c r="C196">
-        <v>0.1561</v>
+        <v>0.156</v>
       </c>
       <c r="D196">
-        <v>0.2623</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4242</v>
+        <v>0.4243</v>
       </c>
       <c r="C197">
-        <v>0.165</v>
+        <v>0.1649</v>
       </c>
       <c r="D197">
-        <v>0.2591</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4298</v>
+        <v>0.43</v>
       </c>
       <c r="C198">
-        <v>0.1733</v>
+        <v>0.1732</v>
       </c>
       <c r="D198">
-        <v>0.2565</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4339</v>
+        <v>0.4342</v>
       </c>
       <c r="C199">
-        <v>0.1805</v>
+        <v>0.1804</v>
       </c>
       <c r="D199">
-        <v>0.2534</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4374</v>
+        <v>0.4377</v>
       </c>
       <c r="C200">
-        <v>0.1874</v>
+        <v>0.1873</v>
       </c>
       <c r="D200">
-        <v>0.2499</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4403</v>
+        <v>0.4407</v>
       </c>
       <c r="C201">
-        <v>0.194</v>
+        <v>0.1939</v>
       </c>
       <c r="D201">
-        <v>0.2463</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4437</v>
+        <v>0.4441</v>
       </c>
       <c r="C202">
-        <v>0.2006</v>
+        <v>0.2005</v>
       </c>
       <c r="D202">
-        <v>0.2431</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4475</v>
+        <v>0.4479</v>
       </c>
       <c r="C203">
-        <v>0.2077</v>
+        <v>0.2076</v>
       </c>
       <c r="D203">
-        <v>0.2398</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4508</v>
+        <v>0.4512</v>
       </c>
       <c r="C204">
-        <v>0.2143</v>
+        <v>0.2141</v>
       </c>
       <c r="D204">
-        <v>0.2365</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4522</v>
+        <v>0.4527</v>
       </c>
       <c r="C205">
-        <v>0.2186</v>
+        <v>0.2184</v>
       </c>
       <c r="D205">
-        <v>0.2337</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4527</v>
+        <v>0.4532</v>
       </c>
       <c r="C206">
-        <v>0.2228</v>
+        <v>0.2226</v>
       </c>
       <c r="D206">
-        <v>0.23</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4452</v>
+        <v>0.4457</v>
       </c>
       <c r="C207">
-        <v>0.2218</v>
+        <v>0.2217</v>
       </c>
       <c r="D207">
-        <v>0.2234</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4371</v>
+        <v>0.4377</v>
       </c>
       <c r="C208">
-        <v>0.2198</v>
+        <v>0.2197</v>
       </c>
       <c r="D208">
-        <v>0.2172</v>
+        <v>0.2179</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4291</v>
+        <v>0.4298</v>
       </c>
       <c r="C209">
-        <v>0.2178</v>
+        <v>0.2177</v>
       </c>
       <c r="D209">
-        <v>0.2113</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4209</v>
+        <v>0.4216</v>
       </c>
       <c r="C210">
-        <v>0.2152</v>
+        <v>0.2151</v>
       </c>
       <c r="D210">
-        <v>0.2057</v>
+        <v>0.2065</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4207</v>
+        <v>0.4211</v>
       </c>
       <c r="C211">
-        <v>0.2135</v>
+        <v>0.2134</v>
       </c>
       <c r="D211">
-        <v>0.2072</v>
+        <v>0.2078</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4204</v>
+        <v>0.4207</v>
       </c>
       <c r="C212">
-        <v>0.2117</v>
+        <v>0.2116</v>
       </c>
       <c r="D212">
-        <v>0.2087</v>
+        <v>0.2091</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4211</v>
+        <v>0.4213</v>
       </c>
       <c r="C213">
-        <v>0.211</v>
+        <v>0.2109</v>
       </c>
       <c r="D213">
-        <v>0.2101</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4212</v>
+        <v>0.4213</v>
       </c>
       <c r="C214">
-        <v>0.2098</v>
+        <v>0.2097</v>
       </c>
       <c r="D214">
-        <v>0.2114</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4193</v>
+        <v>0.4194</v>
       </c>
       <c r="C215">
-        <v>0.2077</v>
+        <v>0.2076</v>
       </c>
       <c r="D215">
-        <v>0.2116</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4161</v>
+        <v>0.4162</v>
       </c>
       <c r="C216">
-        <v>0.2047</v>
+        <v>0.2046</v>
       </c>
       <c r="D216">
-        <v>0.2114</v>
+        <v>0.2116</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>0.413</v>
       </c>
       <c r="C217">
-        <v>0.2019</v>
+        <v>0.2018</v>
       </c>
       <c r="D217">
-        <v>0.2111</v>
+        <v>0.2112</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4103</v>
+        <v>0.4104</v>
       </c>
       <c r="C218">
-        <v>0.1998</v>
+        <v>0.1997</v>
       </c>
       <c r="D218">
-        <v>0.2105</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4078</v>
+        <v>0.4079</v>
       </c>
       <c r="C219">
-        <v>0.1979</v>
+        <v>0.1978</v>
       </c>
       <c r="D219">
-        <v>0.21</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4046</v>
+        <v>0.4048</v>
       </c>
       <c r="C220">
-        <v>0.1952</v>
+        <v>0.1951</v>
       </c>
       <c r="D220">
-        <v>0.2094</v>
+        <v>0.2097</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4011</v>
+        <v>0.4013</v>
       </c>
       <c r="C221">
-        <v>0.1928</v>
+        <v>0.1927</v>
       </c>
       <c r="D221">
-        <v>0.2084</v>
+        <v>0.2086</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3991</v>
+        <v>0.3993</v>
       </c>
       <c r="C222">
-        <v>0.1917</v>
+        <v>0.1916</v>
       </c>
       <c r="D222">
-        <v>0.2074</v>
+        <v>0.2077</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.397</v>
+        <v>0.3973</v>
       </c>
       <c r="C223">
         <v>0.1904</v>
       </c>
       <c r="D223">
-        <v>0.2066</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3962</v>
+        <v>0.3965</v>
       </c>
       <c r="C224">
         <v>0.19</v>
       </c>
       <c r="D224">
-        <v>0.2062</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.396</v>
+        <v>0.3963</v>
       </c>
       <c r="C225">
-        <v>0.1904</v>
+        <v>0.1903</v>
       </c>
       <c r="D225">
-        <v>0.2056</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3965</v>
+        <v>0.3969</v>
       </c>
       <c r="C226">
         <v>0.191</v>
       </c>
       <c r="D226">
-        <v>0.2055</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3999</v>
+        <v>0.4004</v>
       </c>
       <c r="C227">
         <v>0.1943</v>
       </c>
       <c r="D227">
-        <v>0.2057</v>
+        <v>0.2061</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4046</v>
+        <v>0.405</v>
       </c>
       <c r="C228">
-        <v>0.1984</v>
+        <v>0.1983</v>
       </c>
       <c r="D228">
-        <v>0.2062</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4099</v>
+        <v>0.4104</v>
       </c>
       <c r="C229">
-        <v>0.203</v>
+        <v>0.2029</v>
       </c>
       <c r="D229">
-        <v>0.2069</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4169</v>
+        <v>0.4174</v>
       </c>
       <c r="C230">
+        <v>0.2086</v>
+      </c>
+      <c r="D230">
         <v>0.2087</v>
-      </c>
-      <c r="D230">
-        <v>0.2082</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4162</v>
+        <v>0.4168</v>
       </c>
       <c r="C231">
         <v>0.2128</v>
       </c>
       <c r="D231">
-        <v>0.2034</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4146</v>
+        <v>0.4153</v>
       </c>
       <c r="C232">
         <v>0.2157</v>
       </c>
       <c r="D232">
-        <v>0.1989</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4125</v>
+        <v>0.4133</v>
       </c>
       <c r="C233">
         <v>0.2175</v>
       </c>
       <c r="D233">
-        <v>0.195</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4103</v>
+        <v>0.4111</v>
       </c>
       <c r="C234">
         <v>0.2188</v>
       </c>
       <c r="D234">
-        <v>0.1915</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4088</v>
+        <v>0.4096</v>
       </c>
       <c r="C235">
         <v>0.2203</v>
       </c>
       <c r="D235">
-        <v>0.1885</v>
+        <v>0.1893</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4079</v>
+        <v>0.4088</v>
       </c>
       <c r="C236">
         <v>0.222</v>
       </c>
       <c r="D236">
-        <v>0.1859</v>
+        <v>0.1867</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4073</v>
+        <v>0.4081</v>
       </c>
       <c r="C237">
         <v>0.2236</v>
       </c>
       <c r="D237">
-        <v>0.1838</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4072</v>
+        <v>0.4079</v>
       </c>
       <c r="C238">
         <v>0.2252</v>
       </c>
       <c r="D238">
-        <v>0.182</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4067</v>
+        <v>0.4074</v>
       </c>
       <c r="C239">
         <v>0.2262</v>
       </c>
       <c r="D239">
-        <v>0.1804</v>
+        <v>0.1811</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,13 +4496,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4072</v>
+        <v>0.4079</v>
       </c>
       <c r="C240">
         <v>0.2279</v>
       </c>
       <c r="D240">
-        <v>0.1793</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.408</v>
+        <v>0.4085</v>
       </c>
       <c r="C241">
         <v>0.2294</v>
       </c>
       <c r="D241">
-        <v>0.1786</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4083</v>
+        <v>0.4087</v>
       </c>
       <c r="C242">
         <v>0.2302</v>
       </c>
       <c r="D242">
-        <v>0.1781</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4086</v>
+        <v>0.4089</v>
       </c>
       <c r="C243">
         <v>0.2308</v>
       </c>
       <c r="D243">
-        <v>0.1778</v>
+        <v>0.1782</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4552,13 +4552,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4087</v>
+        <v>0.409</v>
       </c>
       <c r="C244">
-        <v>0.2313</v>
+        <v>0.2312</v>
       </c>
       <c r="D244">
-        <v>0.1774</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.409</v>
+        <v>0.4092</v>
       </c>
       <c r="C245">
         <v>0.2317</v>
       </c>
       <c r="D245">
-        <v>0.1773</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4086</v>
+        <v>0.4087</v>
       </c>
       <c r="C246">
         <v>0.2313</v>
       </c>
       <c r="D246">
-        <v>0.1773</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>0.4066</v>
       </c>
       <c r="C247">
-        <v>0.2292</v>
+        <v>0.2291</v>
       </c>
       <c r="D247">
-        <v>0.1774</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,10 +4608,10 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.404</v>
+        <v>0.4039</v>
       </c>
       <c r="C248">
-        <v>0.2266</v>
+        <v>0.2265</v>
       </c>
       <c r="D248">
         <v>0.1774</v>
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4004</v>
+        <v>0.4003</v>
       </c>
       <c r="C249">
-        <v>0.2227</v>
+        <v>0.2226</v>
       </c>
       <c r="D249">
-        <v>0.1777</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3966</v>
+        <v>0.3964</v>
       </c>
       <c r="C250">
-        <v>0.2185</v>
+        <v>0.2184</v>
       </c>
       <c r="D250">
-        <v>0.1781</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3924</v>
+        <v>0.3921</v>
       </c>
       <c r="C251">
         <v>0.214</v>
       </c>
       <c r="D251">
-        <v>0.1784</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3889</v>
+        <v>0.3886</v>
       </c>
       <c r="C252">
         <v>0.2102</v>
       </c>
       <c r="D252">
-        <v>0.1786</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3844</v>
+        <v>0.384</v>
       </c>
       <c r="C253">
         <v>0.2056</v>
       </c>
       <c r="D253">
-        <v>0.1788</v>
+        <v>0.1784</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2011 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2011 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2243</v>
+        <v>0.2246</v>
       </c>
       <c r="C2">
-        <v>0.082</v>
+        <v>0.0819</v>
       </c>
       <c r="D2">
-        <v>0.1423</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2298</v>
+        <v>0.23</v>
       </c>
       <c r="C3">
-        <v>0.08400000000000001</v>
+        <v>0.0838</v>
       </c>
       <c r="D3">
-        <v>0.1458</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2469</v>
+        <v>0.2471</v>
       </c>
       <c r="C4">
-        <v>0.0934</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D4">
-        <v>0.1535</v>
+        <v>0.1539</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2641</v>
+        <v>0.2643</v>
       </c>
       <c r="C5">
-        <v>0.1029</v>
+        <v>0.1027</v>
       </c>
       <c r="D5">
-        <v>0.1612</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.281</v>
+        <v>0.2812</v>
       </c>
       <c r="C6">
-        <v>0.1123</v>
+        <v>0.1122</v>
       </c>
       <c r="D6">
-        <v>0.1687</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2975</v>
+        <v>0.2977</v>
       </c>
       <c r="C7">
-        <v>0.122</v>
+        <v>0.1219</v>
       </c>
       <c r="D7">
-        <v>0.1754</v>
+        <v>0.1758</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3137</v>
+        <v>0.3139</v>
       </c>
       <c r="C8">
-        <v>0.1319</v>
+        <v>0.1317</v>
       </c>
       <c r="D8">
-        <v>0.1818</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3286</v>
+        <v>0.3288</v>
       </c>
       <c r="C9">
-        <v>0.141</v>
+        <v>0.1408</v>
       </c>
       <c r="D9">
-        <v>0.1876</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3431</v>
+        <v>0.3433</v>
       </c>
       <c r="C10">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D10">
-        <v>0.193</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3566</v>
+        <v>0.3568</v>
       </c>
       <c r="C11">
-        <v>0.1587</v>
+        <v>0.1585</v>
       </c>
       <c r="D11">
-        <v>0.198</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3705</v>
+        <v>0.3707</v>
       </c>
       <c r="C12">
-        <v>0.1674</v>
+        <v>0.1672</v>
       </c>
       <c r="D12">
-        <v>0.2032</v>
+        <v>0.2035</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3831</v>
+        <v>0.3833</v>
       </c>
       <c r="C13">
-        <v>0.1752</v>
+        <v>0.1751</v>
       </c>
       <c r="D13">
-        <v>0.2079</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3951</v>
+        <v>0.3952</v>
       </c>
       <c r="C14">
-        <v>0.1825</v>
+        <v>0.1823</v>
       </c>
       <c r="D14">
-        <v>0.2126</v>
+        <v>0.2129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4062</v>
+        <v>0.4064</v>
       </c>
       <c r="C15">
-        <v>0.1887</v>
+        <v>0.1886</v>
       </c>
       <c r="D15">
-        <v>0.2175</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4162</v>
+        <v>0.4163</v>
       </c>
       <c r="C16">
-        <v>0.194</v>
+        <v>0.1939</v>
       </c>
       <c r="D16">
-        <v>0.2222</v>
+        <v>0.2225</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4255</v>
+        <v>0.4257</v>
       </c>
       <c r="C17">
-        <v>0.1992</v>
+        <v>0.1991</v>
       </c>
       <c r="D17">
-        <v>0.2263</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4335</v>
+        <v>0.4336</v>
       </c>
       <c r="C18">
-        <v>0.2039</v>
+        <v>0.2038</v>
       </c>
       <c r="D18">
-        <v>0.2296</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4409</v>
+        <v>0.4411</v>
       </c>
       <c r="C19">
         <v>0.2084</v>
       </c>
       <c r="D19">
-        <v>0.2325</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4498</v>
+        <v>0.4499</v>
       </c>
       <c r="C20">
-        <v>0.2125</v>
+        <v>0.2124</v>
       </c>
       <c r="D20">
-        <v>0.2373</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4578</v>
+        <v>0.458</v>
       </c>
       <c r="C21">
         <v>0.2164</v>
       </c>
       <c r="D21">
-        <v>0.2414</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4653</v>
+        <v>0.4654</v>
       </c>
       <c r="C22">
         <v>0.2203</v>
       </c>
       <c r="D22">
-        <v>0.245</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4699</v>
+        <v>0.4701</v>
       </c>
       <c r="C23">
         <v>0.2218</v>
       </c>
       <c r="D23">
-        <v>0.2481</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4625</v>
+        <v>0.4628</v>
       </c>
       <c r="C24">
         <v>0.2161</v>
       </c>
       <c r="D24">
-        <v>0.2465</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.455</v>
+        <v>0.4552</v>
       </c>
       <c r="C25">
-        <v>0.2104</v>
+        <v>0.2105</v>
       </c>
       <c r="D25">
-        <v>0.2446</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4476</v>
+        <v>0.4478</v>
       </c>
       <c r="C26">
         <v>0.2052</v>
       </c>
       <c r="D26">
-        <v>0.2424</v>
+        <v>0.2426</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.439</v>
+        <v>0.4392</v>
       </c>
       <c r="C27">
-        <v>0.199</v>
+        <v>0.1991</v>
       </c>
       <c r="D27">
-        <v>0.24</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4302</v>
+        <v>0.4304</v>
       </c>
       <c r="C28">
         <v>0.1927</v>
       </c>
       <c r="D28">
-        <v>0.2375</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4221</v>
+        <v>0.4224</v>
       </c>
       <c r="C29">
-        <v>0.1866</v>
+        <v>0.1867</v>
       </c>
       <c r="D29">
-        <v>0.2355</v>
+        <v>0.2357</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4151</v>
+        <v>0.4153</v>
       </c>
       <c r="C30">
-        <v>0.1811</v>
+        <v>0.1812</v>
       </c>
       <c r="D30">
-        <v>0.2339</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4087</v>
+        <v>0.409</v>
       </c>
       <c r="C31">
-        <v>0.1763</v>
+        <v>0.1764</v>
       </c>
       <c r="D31">
-        <v>0.2324</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4028</v>
+        <v>0.403</v>
       </c>
       <c r="C32">
-        <v>0.172</v>
+        <v>0.1721</v>
       </c>
       <c r="D32">
-        <v>0.2308</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3979</v>
+        <v>0.3981</v>
       </c>
       <c r="C33">
-        <v>0.1685</v>
+        <v>0.1686</v>
       </c>
       <c r="D33">
-        <v>0.2293</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3935</v>
+        <v>0.3937</v>
       </c>
       <c r="C34">
-        <v>0.1656</v>
+        <v>0.1657</v>
       </c>
       <c r="D34">
-        <v>0.2279</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3894</v>
+        <v>0.3896</v>
       </c>
       <c r="C35">
         <v>0.1632</v>
       </c>
       <c r="D35">
-        <v>0.2262</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3864</v>
+        <v>0.3866</v>
       </c>
       <c r="C36">
-        <v>0.1617</v>
+        <v>0.1618</v>
       </c>
       <c r="D36">
-        <v>0.2247</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3839</v>
+        <v>0.3841</v>
       </c>
       <c r="C37">
         <v>0.1607</v>
       </c>
       <c r="D37">
-        <v>0.2232</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3818</v>
+        <v>0.382</v>
       </c>
       <c r="C38">
-        <v>0.1599</v>
+        <v>0.16</v>
       </c>
       <c r="D38">
-        <v>0.2219</v>
+        <v>0.2221</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3808</v>
+        <v>0.3811</v>
       </c>
       <c r="C39">
-        <v>0.1598</v>
+        <v>0.1599</v>
       </c>
       <c r="D39">
-        <v>0.221</v>
+        <v>0.2212</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3782</v>
+        <v>0.3783</v>
       </c>
       <c r="C40">
-        <v>0.1601</v>
+        <v>0.1602</v>
       </c>
       <c r="D40">
-        <v>0.218</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.376</v>
+        <v>0.3762</v>
       </c>
       <c r="C41">
         <v>0.1605</v>
       </c>
       <c r="D41">
-        <v>0.2156</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.375</v>
+        <v>0.3751</v>
       </c>
       <c r="C42">
         <v>0.1607</v>
       </c>
       <c r="D42">
-        <v>0.2142</v>
+        <v>0.2144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3743</v>
+        <v>0.3745</v>
       </c>
       <c r="C43">
         <v>0.1609</v>
       </c>
       <c r="D43">
-        <v>0.2134</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3738</v>
+        <v>0.3739</v>
       </c>
       <c r="C44">
         <v>0.1607</v>
       </c>
       <c r="D44">
-        <v>0.2131</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3741</v>
+        <v>0.3743</v>
       </c>
       <c r="C45">
         <v>0.1602</v>
       </c>
       <c r="D45">
-        <v>0.2139</v>
+        <v>0.2141</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3747</v>
+        <v>0.3748</v>
       </c>
       <c r="C46">
-        <v>0.1594</v>
+        <v>0.1593</v>
       </c>
       <c r="D46">
-        <v>0.2153</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3751</v>
+        <v>0.3752</v>
       </c>
       <c r="C47">
-        <v>0.1581</v>
+        <v>0.158</v>
       </c>
       <c r="D47">
-        <v>0.217</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3761</v>
+        <v>0.3763</v>
       </c>
       <c r="C48">
         <v>0.1573</v>
       </c>
       <c r="D48">
-        <v>0.2188</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3769</v>
+        <v>0.3771</v>
       </c>
       <c r="C49">
-        <v>0.1563</v>
+        <v>0.1562</v>
       </c>
       <c r="D49">
-        <v>0.2207</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3774</v>
+        <v>0.3775</v>
       </c>
       <c r="C50">
-        <v>0.1548</v>
+        <v>0.1547</v>
       </c>
       <c r="D50">
-        <v>0.2226</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3783</v>
+        <v>0.3784</v>
       </c>
       <c r="C51">
-        <v>0.1538</v>
+        <v>0.1537</v>
       </c>
       <c r="D51">
-        <v>0.2246</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3791</v>
+        <v>0.3792</v>
       </c>
       <c r="C52">
-        <v>0.1523</v>
+        <v>0.1521</v>
       </c>
       <c r="D52">
-        <v>0.2269</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>0.3801</v>
       </c>
       <c r="C53">
-        <v>0.1506</v>
+        <v>0.1505</v>
       </c>
       <c r="D53">
-        <v>0.2294</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3821</v>
+        <v>0.3822</v>
       </c>
       <c r="C54">
-        <v>0.1493</v>
+        <v>0.1492</v>
       </c>
       <c r="D54">
-        <v>0.2328</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3845</v>
+        <v>0.3846</v>
       </c>
       <c r="C55">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D55">
-        <v>0.236</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3881</v>
+        <v>0.3882</v>
       </c>
       <c r="C56">
-        <v>0.1478</v>
+        <v>0.1477</v>
       </c>
       <c r="D56">
-        <v>0.2403</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3911</v>
+        <v>0.3912</v>
       </c>
       <c r="C57">
-        <v>0.1467</v>
+        <v>0.1466</v>
       </c>
       <c r="D57">
-        <v>0.2444</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3944</v>
+        <v>0.3945</v>
       </c>
       <c r="C58">
-        <v>0.1459</v>
+        <v>0.1458</v>
       </c>
       <c r="D58">
-        <v>0.2485</v>
+        <v>0.2487</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3962</v>
+        <v>0.3963</v>
       </c>
       <c r="C59">
-        <v>0.1442</v>
+        <v>0.144</v>
       </c>
       <c r="D59">
-        <v>0.252</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3971</v>
+        <v>0.3972</v>
       </c>
       <c r="C60">
-        <v>0.1419</v>
+        <v>0.1417</v>
       </c>
       <c r="D60">
-        <v>0.2552</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3975</v>
+        <v>0.3976</v>
       </c>
       <c r="C61">
-        <v>0.1397</v>
+        <v>0.1395</v>
       </c>
       <c r="D61">
-        <v>0.2578</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.397</v>
+        <v>0.3971</v>
       </c>
       <c r="C62">
-        <v>0.1372</v>
+        <v>0.1371</v>
       </c>
       <c r="D62">
-        <v>0.2597</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3964</v>
+        <v>0.3965</v>
       </c>
       <c r="C63">
-        <v>0.1351</v>
+        <v>0.1349</v>
       </c>
       <c r="D63">
-        <v>0.2614</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3951</v>
+        <v>0.3952</v>
       </c>
       <c r="C64">
-        <v>0.1326</v>
+        <v>0.1324</v>
       </c>
       <c r="D64">
-        <v>0.2625</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.393</v>
+        <v>0.3931</v>
       </c>
       <c r="C65">
-        <v>0.1304</v>
+        <v>0.1303</v>
       </c>
       <c r="D65">
-        <v>0.2626</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3913</v>
+        <v>0.3914</v>
       </c>
       <c r="C66">
-        <v>0.1289</v>
+        <v>0.1287</v>
       </c>
       <c r="D66">
-        <v>0.2624</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2077,10 +2077,10 @@
         <v>0.3904</v>
       </c>
       <c r="C67">
-        <v>0.1281</v>
+        <v>0.1279</v>
       </c>
       <c r="D67">
-        <v>0.2623</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3886</v>
+        <v>0.3887</v>
       </c>
       <c r="C68">
-        <v>0.1267</v>
+        <v>0.1265</v>
       </c>
       <c r="D68">
-        <v>0.262</v>
+        <v>0.2622</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3873</v>
+        <v>0.3874</v>
       </c>
       <c r="C69">
-        <v>0.1257</v>
+        <v>0.1255</v>
       </c>
       <c r="D69">
-        <v>0.2617</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.386</v>
+        <v>0.3861</v>
       </c>
       <c r="C70">
-        <v>0.1246</v>
+        <v>0.1244</v>
       </c>
       <c r="D70">
-        <v>0.2614</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3843</v>
+        <v>0.3844</v>
       </c>
       <c r="C71">
-        <v>0.1234</v>
+        <v>0.1233</v>
       </c>
       <c r="D71">
-        <v>0.2609</v>
+        <v>0.2612</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3821</v>
+        <v>0.3822</v>
       </c>
       <c r="C72">
-        <v>0.122</v>
+        <v>0.1219</v>
       </c>
       <c r="D72">
-        <v>0.2601</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3804</v>
+        <v>0.3805</v>
       </c>
       <c r="C73">
-        <v>0.1213</v>
+        <v>0.1212</v>
       </c>
       <c r="D73">
-        <v>0.2591</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3769</v>
+        <v>0.377</v>
       </c>
       <c r="C74">
-        <v>0.1195</v>
+        <v>0.1194</v>
       </c>
       <c r="D74">
-        <v>0.2574</v>
+        <v>0.2577</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3734</v>
+        <v>0.3735</v>
       </c>
       <c r="C75">
-        <v>0.1175</v>
+        <v>0.1174</v>
       </c>
       <c r="D75">
-        <v>0.2559</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3691</v>
+        <v>0.3692</v>
       </c>
       <c r="C76">
-        <v>0.1155</v>
+        <v>0.1153</v>
       </c>
       <c r="D76">
-        <v>0.2536</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3651</v>
+        <v>0.3652</v>
       </c>
       <c r="C77">
-        <v>0.1135</v>
+        <v>0.1133</v>
       </c>
       <c r="D77">
-        <v>0.2516</v>
+        <v>0.2519</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3623</v>
+        <v>0.3624</v>
       </c>
       <c r="C78">
-        <v>0.1126</v>
+        <v>0.1124</v>
       </c>
       <c r="D78">
-        <v>0.2498</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3604</v>
+        <v>0.3605</v>
       </c>
       <c r="C79">
-        <v>0.112</v>
+        <v>0.1119</v>
       </c>
       <c r="D79">
-        <v>0.2484</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3593</v>
+        <v>0.3594</v>
       </c>
       <c r="C80">
-        <v>0.1119</v>
+        <v>0.1117</v>
       </c>
       <c r="D80">
-        <v>0.2474</v>
+        <v>0.2477</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3595</v>
+        <v>0.3596</v>
       </c>
       <c r="C81">
-        <v>0.1119</v>
+        <v>0.1117</v>
       </c>
       <c r="D81">
-        <v>0.2476</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>0.3601</v>
       </c>
       <c r="C82">
-        <v>0.112</v>
+        <v>0.1118</v>
       </c>
       <c r="D82">
-        <v>0.248</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3616</v>
+        <v>0.3617</v>
       </c>
       <c r="C83">
-        <v>0.1126</v>
+        <v>0.1124</v>
       </c>
       <c r="D83">
-        <v>0.249</v>
+        <v>0.2493</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>0.364</v>
       </c>
       <c r="C84">
-        <v>0.1135</v>
+        <v>0.1133</v>
       </c>
       <c r="D84">
-        <v>0.2505</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3665</v>
+        <v>0.3666</v>
       </c>
       <c r="C85">
-        <v>0.1142</v>
+        <v>0.114</v>
       </c>
       <c r="D85">
-        <v>0.2523</v>
+        <v>0.2526</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3687</v>
+        <v>0.3688</v>
       </c>
       <c r="C86">
-        <v>0.1143</v>
+        <v>0.1141</v>
       </c>
       <c r="D86">
-        <v>0.2545</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3714</v>
+        <v>0.3715</v>
       </c>
       <c r="C87">
-        <v>0.1146</v>
+        <v>0.1144</v>
       </c>
       <c r="D87">
-        <v>0.2569</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3749</v>
+        <v>0.375</v>
       </c>
       <c r="C88">
-        <v>0.1154</v>
+        <v>0.1152</v>
       </c>
       <c r="D88">
-        <v>0.2596</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3806</v>
+        <v>0.3807</v>
       </c>
       <c r="C89">
-        <v>0.1179</v>
+        <v>0.1177</v>
       </c>
       <c r="D89">
-        <v>0.2627</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>0.3864</v>
       </c>
       <c r="C90">
-        <v>0.1206</v>
+        <v>0.1204</v>
       </c>
       <c r="D90">
-        <v>0.2658</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>0.3918</v>
       </c>
       <c r="C91">
-        <v>0.1226</v>
+        <v>0.1224</v>
       </c>
       <c r="D91">
-        <v>0.2692</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>0.3975</v>
       </c>
       <c r="C92">
-        <v>0.1248</v>
+        <v>0.1246</v>
       </c>
       <c r="D92">
-        <v>0.2727</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4028</v>
+        <v>0.4029</v>
       </c>
       <c r="C93">
-        <v>0.1264</v>
+        <v>0.1262</v>
       </c>
       <c r="D93">
-        <v>0.2764</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4093</v>
+        <v>0.4094</v>
       </c>
       <c r="C94">
-        <v>0.1291</v>
+        <v>0.1289</v>
       </c>
       <c r="D94">
-        <v>0.2802</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>0.416</v>
       </c>
       <c r="C95">
-        <v>0.1315</v>
+        <v>0.1313</v>
       </c>
       <c r="D95">
-        <v>0.2845</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4225</v>
+        <v>0.4226</v>
       </c>
       <c r="C96">
-        <v>0.1338</v>
+        <v>0.1336</v>
       </c>
       <c r="D96">
-        <v>0.2887</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4291</v>
+        <v>0.4292</v>
       </c>
       <c r="C97">
-        <v>0.1362</v>
+        <v>0.136</v>
       </c>
       <c r="D97">
-        <v>0.2929</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>0.4344</v>
       </c>
       <c r="C98">
-        <v>0.1376</v>
+        <v>0.1374</v>
       </c>
       <c r="D98">
-        <v>0.2968</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4403</v>
+        <v>0.4404</v>
       </c>
       <c r="C99">
-        <v>0.1395</v>
+        <v>0.1393</v>
       </c>
       <c r="D99">
-        <v>0.3008</v>
+        <v>0.3011</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4465</v>
+        <v>0.4466</v>
       </c>
       <c r="C100">
-        <v>0.1414</v>
+        <v>0.1412</v>
       </c>
       <c r="D100">
-        <v>0.3051</v>
+        <v>0.3054</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>0.4522</v>
       </c>
       <c r="C101">
-        <v>0.1434</v>
+        <v>0.1432</v>
       </c>
       <c r="D101">
-        <v>0.3087</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4586</v>
+        <v>0.4587</v>
       </c>
       <c r="C102">
-        <v>0.1464</v>
+        <v>0.1462</v>
       </c>
       <c r="D102">
-        <v>0.3122</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4648</v>
+        <v>0.4649</v>
       </c>
       <c r="C103">
-        <v>0.1496</v>
+        <v>0.1494</v>
       </c>
       <c r="D103">
-        <v>0.3152</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4692</v>
+        <v>0.4694</v>
       </c>
       <c r="C104">
-        <v>0.1514</v>
+        <v>0.1512</v>
       </c>
       <c r="D104">
-        <v>0.3178</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4728</v>
+        <v>0.4729</v>
       </c>
       <c r="C105">
-        <v>0.1528</v>
+        <v>0.1526</v>
       </c>
       <c r="D105">
-        <v>0.3199</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.476</v>
+        <v>0.4761</v>
       </c>
       <c r="C106">
-        <v>0.1542</v>
+        <v>0.154</v>
       </c>
       <c r="D106">
-        <v>0.3218</v>
+        <v>0.3221</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4785</v>
+        <v>0.4787</v>
       </c>
       <c r="C107">
-        <v>0.1552</v>
+        <v>0.155</v>
       </c>
       <c r="D107">
-        <v>0.3234</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4808</v>
+        <v>0.4809</v>
       </c>
       <c r="C108">
-        <v>0.1562</v>
+        <v>0.156</v>
       </c>
       <c r="D108">
-        <v>0.3246</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.4808</v>
+        <v>0.481</v>
       </c>
       <c r="C109">
-        <v>0.1555</v>
+        <v>0.1553</v>
       </c>
       <c r="D109">
-        <v>0.3253</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4805</v>
+        <v>0.4806</v>
       </c>
       <c r="C110">
-        <v>0.1545</v>
+        <v>0.1543</v>
       </c>
       <c r="D110">
-        <v>0.326</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4807</v>
+        <v>0.4808</v>
       </c>
       <c r="C111">
-        <v>0.1544</v>
+        <v>0.1542</v>
       </c>
       <c r="D111">
-        <v>0.3263</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4804</v>
+        <v>0.4806</v>
       </c>
       <c r="C112">
-        <v>0.154</v>
+        <v>0.1538</v>
       </c>
       <c r="D112">
-        <v>0.3265</v>
+        <v>0.3268</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4795</v>
+        <v>0.4796</v>
       </c>
       <c r="C113">
-        <v>0.1532</v>
+        <v>0.153</v>
       </c>
       <c r="D113">
-        <v>0.3263</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4778</v>
+        <v>0.4779</v>
       </c>
       <c r="C114">
-        <v>0.1519</v>
+        <v>0.1517</v>
       </c>
       <c r="D114">
-        <v>0.3259</v>
+        <v>0.3262</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4756</v>
+        <v>0.4758</v>
       </c>
       <c r="C115">
-        <v>0.1508</v>
+        <v>0.1506</v>
       </c>
       <c r="D115">
-        <v>0.3248</v>
+        <v>0.3251</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4726</v>
+        <v>0.4728</v>
       </c>
       <c r="C116">
-        <v>0.1492</v>
+        <v>0.149</v>
       </c>
       <c r="D116">
-        <v>0.3235</v>
+        <v>0.3238</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.4699</v>
+        <v>0.47</v>
       </c>
       <c r="C117">
-        <v>0.1476</v>
+        <v>0.1475</v>
       </c>
       <c r="D117">
-        <v>0.3222</v>
+        <v>0.3226</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4672</v>
+        <v>0.4673</v>
       </c>
       <c r="C118">
-        <v>0.146</v>
+        <v>0.1458</v>
       </c>
       <c r="D118">
-        <v>0.3212</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.464</v>
+        <v>0.4642</v>
       </c>
       <c r="C119">
-        <v>0.1439</v>
+        <v>0.1438</v>
       </c>
       <c r="D119">
-        <v>0.32</v>
+        <v>0.3204</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4605</v>
+        <v>0.4607</v>
       </c>
       <c r="C120">
-        <v>0.1421</v>
+        <v>0.142</v>
       </c>
       <c r="D120">
-        <v>0.3184</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4566</v>
+        <v>0.4568</v>
       </c>
       <c r="C121">
-        <v>0.1399</v>
+        <v>0.1397</v>
       </c>
       <c r="D121">
-        <v>0.3168</v>
+        <v>0.3171</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4515</v>
+        <v>0.4517</v>
       </c>
       <c r="C122">
-        <v>0.1362</v>
+        <v>0.1361</v>
       </c>
       <c r="D122">
-        <v>0.3153</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4463</v>
+        <v>0.4464</v>
       </c>
       <c r="C123">
-        <v>0.1322</v>
+        <v>0.132</v>
       </c>
       <c r="D123">
-        <v>0.3141</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.4428</v>
+        <v>0.443</v>
       </c>
       <c r="C124">
-        <v>0.1297</v>
+        <v>0.1295</v>
       </c>
       <c r="D124">
-        <v>0.3131</v>
+        <v>0.3135</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4402</v>
+        <v>0.4403</v>
       </c>
       <c r="C125">
-        <v>0.1275</v>
+        <v>0.1274</v>
       </c>
       <c r="D125">
-        <v>0.3126</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4374</v>
+        <v>0.4375</v>
       </c>
       <c r="C126">
-        <v>0.1251</v>
+        <v>0.1249</v>
       </c>
       <c r="D126">
-        <v>0.3123</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4348</v>
+        <v>0.4349</v>
       </c>
       <c r="C127">
-        <v>0.1226</v>
+        <v>0.1224</v>
       </c>
       <c r="D127">
-        <v>0.3122</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4326</v>
+        <v>0.4327</v>
       </c>
       <c r="C128">
-        <v>0.1202</v>
+        <v>0.1201</v>
       </c>
       <c r="D128">
-        <v>0.3123</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4301</v>
+        <v>0.4303</v>
       </c>
       <c r="C129">
-        <v>0.1177</v>
+        <v>0.1176</v>
       </c>
       <c r="D129">
-        <v>0.3124</v>
+        <v>0.3127</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4278</v>
+        <v>0.428</v>
       </c>
       <c r="C130">
-        <v>0.1153</v>
+        <v>0.1151</v>
       </c>
       <c r="D130">
-        <v>0.3126</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4257</v>
+        <v>0.4259</v>
       </c>
       <c r="C131">
-        <v>0.1127</v>
+        <v>0.1125</v>
       </c>
       <c r="D131">
-        <v>0.313</v>
+        <v>0.3133</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4243</v>
+        <v>0.4244</v>
       </c>
       <c r="C132">
-        <v>0.1107</v>
+        <v>0.1105</v>
       </c>
       <c r="D132">
-        <v>0.3136</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4226</v>
+        <v>0.4227</v>
       </c>
       <c r="C133">
-        <v>0.1083</v>
+        <v>0.1082</v>
       </c>
       <c r="D133">
-        <v>0.3142</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4214</v>
+        <v>0.4215</v>
       </c>
       <c r="C134">
-        <v>0.1064</v>
+        <v>0.1063</v>
       </c>
       <c r="D134">
-        <v>0.3149</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4205</v>
+        <v>0.4207</v>
       </c>
       <c r="C135">
-        <v>0.1045</v>
+        <v>0.1043</v>
       </c>
       <c r="D135">
-        <v>0.316</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4213</v>
+        <v>0.4214</v>
       </c>
       <c r="C136">
-        <v>0.104</v>
+        <v>0.1038</v>
       </c>
       <c r="D136">
-        <v>0.3173</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4215</v>
+        <v>0.4216</v>
       </c>
       <c r="C137">
-        <v>0.1032</v>
+        <v>0.103</v>
       </c>
       <c r="D137">
-        <v>0.3182</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.422</v>
+        <v>0.4221</v>
       </c>
       <c r="C138">
-        <v>0.1029</v>
+        <v>0.1027</v>
       </c>
       <c r="D138">
-        <v>0.3191</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4222</v>
+        <v>0.4223</v>
       </c>
       <c r="C139">
-        <v>0.1025</v>
+        <v>0.1023</v>
       </c>
       <c r="D139">
-        <v>0.3197</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.422</v>
+        <v>0.4221</v>
       </c>
       <c r="C140">
-        <v>0.102</v>
+        <v>0.1018</v>
       </c>
       <c r="D140">
-        <v>0.32</v>
+        <v>0.3204</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4222</v>
+        <v>0.4224</v>
       </c>
       <c r="C141">
-        <v>0.1021</v>
+        <v>0.1019</v>
       </c>
       <c r="D141">
-        <v>0.3201</v>
+        <v>0.3205</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4218</v>
+        <v>0.4219</v>
       </c>
       <c r="C142">
-        <v>0.1018</v>
+        <v>0.1016</v>
       </c>
       <c r="D142">
-        <v>0.3199</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4217</v>
+        <v>0.4218</v>
       </c>
       <c r="C143">
-        <v>0.1022</v>
+        <v>0.102</v>
       </c>
       <c r="D143">
-        <v>0.3195</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.421</v>
+        <v>0.4211</v>
       </c>
       <c r="C144">
-        <v>0.1022</v>
+        <v>0.102</v>
       </c>
       <c r="D144">
-        <v>0.3187</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4201</v>
+        <v>0.4202</v>
       </c>
       <c r="C145">
-        <v>0.1023</v>
+        <v>0.1021</v>
       </c>
       <c r="D145">
-        <v>0.3177</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.4184</v>
+        <v>0.4185</v>
       </c>
       <c r="C146">
-        <v>0.1019</v>
+        <v>0.1017</v>
       </c>
       <c r="D146">
-        <v>0.3165</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4175</v>
+        <v>0.4176</v>
       </c>
       <c r="C147">
-        <v>0.1025</v>
+        <v>0.1022</v>
       </c>
       <c r="D147">
-        <v>0.315</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4167</v>
+        <v>0.4169</v>
       </c>
       <c r="C148">
-        <v>0.1034</v>
+        <v>0.1032</v>
       </c>
       <c r="D148">
-        <v>0.3133</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.415</v>
+        <v>0.4151</v>
       </c>
       <c r="C149">
-        <v>0.1035</v>
+        <v>0.1033</v>
       </c>
       <c r="D149">
-        <v>0.3114</v>
+        <v>0.3118</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4129</v>
+        <v>0.413</v>
       </c>
       <c r="C150">
-        <v>0.1034</v>
+        <v>0.1031</v>
       </c>
       <c r="D150">
-        <v>0.3095</v>
+        <v>0.3098</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4106</v>
+        <v>0.4107</v>
       </c>
       <c r="C151">
-        <v>0.1033</v>
+        <v>0.103</v>
       </c>
       <c r="D151">
-        <v>0.3073</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4094</v>
+        <v>0.4095</v>
       </c>
       <c r="C152">
-        <v>0.1029</v>
+        <v>0.1026</v>
       </c>
       <c r="D152">
-        <v>0.3065</v>
+        <v>0.3069</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4088</v>
+        <v>0.4089</v>
       </c>
       <c r="C153">
-        <v>0.1031</v>
+        <v>0.1029</v>
       </c>
       <c r="D153">
-        <v>0.3057</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4102</v>
+        <v>0.4103</v>
       </c>
       <c r="C154">
-        <v>0.1037</v>
+        <v>0.1035</v>
       </c>
       <c r="D154">
-        <v>0.3065</v>
+        <v>0.3068</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4111</v>
+        <v>0.4112</v>
       </c>
       <c r="C155">
-        <v>0.1044</v>
+        <v>0.1042</v>
       </c>
       <c r="D155">
-        <v>0.3067</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4148</v>
+        <v>0.4149</v>
       </c>
       <c r="C156">
-        <v>0.106</v>
+        <v>0.1058</v>
       </c>
       <c r="D156">
-        <v>0.3088</v>
+        <v>0.3091</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4192</v>
+        <v>0.4193</v>
       </c>
       <c r="C157">
-        <v>0.1084</v>
+        <v>0.1082</v>
       </c>
       <c r="D157">
-        <v>0.3108</v>
+        <v>0.3111</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4235</v>
+        <v>0.4237</v>
       </c>
       <c r="C158">
-        <v>0.1109</v>
+        <v>0.1107</v>
       </c>
       <c r="D158">
-        <v>0.3126</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.427</v>
+        <v>0.4271</v>
       </c>
       <c r="C159">
-        <v>0.113</v>
+        <v>0.1128</v>
       </c>
       <c r="D159">
-        <v>0.3139</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4295</v>
+        <v>0.4296</v>
       </c>
       <c r="C160">
-        <v>0.1147</v>
+        <v>0.1144</v>
       </c>
       <c r="D160">
-        <v>0.3148</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.43</v>
+        <v>0.4301</v>
       </c>
       <c r="C161">
-        <v>0.1148</v>
+        <v>0.1146</v>
       </c>
       <c r="D161">
-        <v>0.3152</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4318</v>
+        <v>0.4319</v>
       </c>
       <c r="C162">
-        <v>0.1163</v>
+        <v>0.116</v>
       </c>
       <c r="D162">
-        <v>0.3155</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4333</v>
+        <v>0.4334</v>
       </c>
       <c r="C163">
-        <v>0.1166</v>
+        <v>0.1163</v>
       </c>
       <c r="D163">
-        <v>0.3167</v>
+        <v>0.3171</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4337</v>
+        <v>0.4338</v>
       </c>
       <c r="C164">
-        <v>0.1162</v>
+        <v>0.116</v>
       </c>
       <c r="D164">
-        <v>0.3174</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4334</v>
+        <v>0.4335</v>
       </c>
       <c r="C165">
-        <v>0.1158</v>
+        <v>0.1156</v>
       </c>
       <c r="D165">
-        <v>0.3176</v>
+        <v>0.3179</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4338</v>
+        <v>0.4339</v>
       </c>
       <c r="C166">
-        <v>0.116</v>
+        <v>0.1158</v>
       </c>
       <c r="D166">
-        <v>0.3177</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.433</v>
+        <v>0.4331</v>
       </c>
       <c r="C167">
-        <v>0.1153</v>
+        <v>0.1151</v>
       </c>
       <c r="D167">
-        <v>0.3176</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4307</v>
+        <v>0.4308</v>
       </c>
       <c r="C168">
-        <v>0.1137</v>
+        <v>0.1135</v>
       </c>
       <c r="D168">
-        <v>0.317</v>
+        <v>0.3173</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>0.4295</v>
       </c>
       <c r="C169">
-        <v>0.1126</v>
+        <v>0.1124</v>
       </c>
       <c r="D169">
-        <v>0.3169</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4275</v>
+        <v>0.4276</v>
       </c>
       <c r="C170">
-        <v>0.1114</v>
+        <v>0.1111</v>
       </c>
       <c r="D170">
-        <v>0.3162</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>0.4263</v>
       </c>
       <c r="C171">
-        <v>0.1101</v>
+        <v>0.1099</v>
       </c>
       <c r="D171">
-        <v>0.3162</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>0.4232</v>
       </c>
       <c r="C172">
-        <v>0.1089</v>
+        <v>0.1087</v>
       </c>
       <c r="D172">
-        <v>0.3143</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>0.4195</v>
       </c>
       <c r="C173">
-        <v>0.1075</v>
+        <v>0.1073</v>
       </c>
       <c r="D173">
-        <v>0.312</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>0.4127</v>
       </c>
       <c r="C174">
-        <v>0.1051</v>
+        <v>0.1049</v>
       </c>
       <c r="D174">
-        <v>0.3076</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>0.4078</v>
       </c>
       <c r="C175">
-        <v>0.1033</v>
+        <v>0.103</v>
       </c>
       <c r="D175">
-        <v>0.3045</v>
+        <v>0.3048</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>0.3994</v>
       </c>
       <c r="C176">
-        <v>0.0998</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="D176">
-        <v>0.2996</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>0.3917</v>
       </c>
       <c r="C177">
-        <v>0.0958</v>
+        <v>0.0956</v>
       </c>
       <c r="D177">
-        <v>0.2958</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3832</v>
+        <v>0.3831</v>
       </c>
       <c r="C178">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
       <c r="D178">
-        <v>0.2918</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>0.3765</v>
       </c>
       <c r="C179">
-        <v>0.0882</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D179">
-        <v>0.2883</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3712</v>
+        <v>0.3711</v>
       </c>
       <c r="C180">
-        <v>0.0859</v>
+        <v>0.0857</v>
       </c>
       <c r="D180">
-        <v>0.2853</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3683</v>
+        <v>0.3682</v>
       </c>
       <c r="C181">
-        <v>0.0849</v>
+        <v>0.0847</v>
       </c>
       <c r="D181">
-        <v>0.2834</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>0.3641</v>
       </c>
       <c r="C182">
-        <v>0.0829</v>
+        <v>0.0827</v>
       </c>
       <c r="D182">
-        <v>0.2812</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>0.359</v>
       </c>
       <c r="C183">
-        <v>0.08119999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="D183">
-        <v>0.2778</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3547</v>
+        <v>0.3546</v>
       </c>
       <c r="C184">
-        <v>0.08</v>
+        <v>0.0798</v>
       </c>
       <c r="D184">
-        <v>0.2747</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>0.3523</v>
       </c>
       <c r="C185">
-        <v>0.0805</v>
+        <v>0.0803</v>
       </c>
       <c r="D185">
-        <v>0.2719</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3516</v>
+        <v>0.3515</v>
       </c>
       <c r="C186">
-        <v>0.0819</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="D186">
-        <v>0.2697</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3578</v>
+        <v>0.3577</v>
       </c>
       <c r="C187">
-        <v>0.0876</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D187">
-        <v>0.2702</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3647</v>
+        <v>0.3646</v>
       </c>
       <c r="C188">
-        <v>0.0939</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D188">
-        <v>0.2708</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>0.3708</v>
       </c>
       <c r="C189">
-        <v>0.1003</v>
+        <v>0.1</v>
       </c>
       <c r="D189">
-        <v>0.2706</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3773</v>
+        <v>0.3772</v>
       </c>
       <c r="C190">
-        <v>0.107</v>
+        <v>0.1068</v>
       </c>
       <c r="D190">
-        <v>0.2703</v>
+        <v>0.2705</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.383</v>
+        <v>0.3829</v>
       </c>
       <c r="C191">
-        <v>0.114</v>
+        <v>0.1137</v>
       </c>
       <c r="D191">
-        <v>0.269</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.389</v>
+        <v>0.3889</v>
       </c>
       <c r="C192">
-        <v>0.1211</v>
+        <v>0.1209</v>
       </c>
       <c r="D192">
-        <v>0.2678</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>0.3957</v>
       </c>
       <c r="C193">
-        <v>0.129</v>
+        <v>0.1288</v>
       </c>
       <c r="D193">
-        <v>0.2667</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>0.4035</v>
       </c>
       <c r="C194">
-        <v>0.138</v>
+        <v>0.1378</v>
       </c>
       <c r="D194">
-        <v>0.2656</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>0.411</v>
       </c>
       <c r="C195">
-        <v>0.1469</v>
+        <v>0.1467</v>
       </c>
       <c r="D195">
-        <v>0.2641</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4185</v>
+        <v>0.4184</v>
       </c>
       <c r="C196">
-        <v>0.156</v>
+        <v>0.1558</v>
       </c>
       <c r="D196">
-        <v>0.2624</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>0.4243</v>
       </c>
       <c r="C197">
-        <v>0.1649</v>
+        <v>0.1648</v>
       </c>
       <c r="D197">
-        <v>0.2594</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>0.43</v>
       </c>
       <c r="C198">
-        <v>0.1732</v>
+        <v>0.173</v>
       </c>
       <c r="D198">
-        <v>0.2569</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4342</v>
+        <v>0.4341</v>
       </c>
       <c r="C199">
-        <v>0.1804</v>
+        <v>0.1802</v>
       </c>
       <c r="D199">
-        <v>0.2538</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>0.4377</v>
       </c>
       <c r="C200">
-        <v>0.1873</v>
+        <v>0.1872</v>
       </c>
       <c r="D200">
-        <v>0.2504</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4407</v>
+        <v>0.4406</v>
       </c>
       <c r="C201">
-        <v>0.1939</v>
+        <v>0.1937</v>
       </c>
       <c r="D201">
-        <v>0.2468</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>0.4441</v>
       </c>
       <c r="C202">
-        <v>0.2005</v>
+        <v>0.2004</v>
       </c>
       <c r="D202">
-        <v>0.2436</v>
+        <v>0.2437</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>0.4479</v>
       </c>
       <c r="C203">
-        <v>0.2076</v>
+        <v>0.2075</v>
       </c>
       <c r="D203">
-        <v>0.2403</v>
+        <v>0.2404</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4012,7 +4012,7 @@
         <v>0.2184</v>
       </c>
       <c r="D205">
-        <v>0.2342</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4026,7 +4026,7 @@
         <v>0.2226</v>
       </c>
       <c r="D206">
-        <v>0.2305</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4457</v>
+        <v>0.4458</v>
       </c>
       <c r="C207">
         <v>0.2217</v>
       </c>
       <c r="D207">
-        <v>0.224</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4051,7 +4051,7 @@
         <v>0.4377</v>
       </c>
       <c r="C208">
-        <v>0.2197</v>
+        <v>0.2198</v>
       </c>
       <c r="D208">
         <v>0.2179</v>
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4298</v>
+        <v>0.4299</v>
       </c>
       <c r="C209">
-        <v>0.2177</v>
+        <v>0.2178</v>
       </c>
       <c r="D209">
-        <v>0.212</v>
+        <v>0.2121</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,10 +4076,10 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4216</v>
+        <v>0.4217</v>
       </c>
       <c r="C210">
-        <v>0.2151</v>
+        <v>0.2152</v>
       </c>
       <c r="D210">
         <v>0.2065</v>
@@ -4090,10 +4090,10 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4211</v>
+        <v>0.4212</v>
       </c>
       <c r="C211">
-        <v>0.2134</v>
+        <v>0.2135</v>
       </c>
       <c r="D211">
         <v>0.2078</v>
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4207</v>
+        <v>0.4208</v>
       </c>
       <c r="C212">
-        <v>0.2116</v>
+        <v>0.2117</v>
       </c>
       <c r="D212">
-        <v>0.2091</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4213</v>
+        <v>0.4215</v>
       </c>
       <c r="C213">
-        <v>0.2109</v>
+        <v>0.211</v>
       </c>
       <c r="D213">
-        <v>0.2104</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,10 +4132,10 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4213</v>
+        <v>0.4215</v>
       </c>
       <c r="C214">
-        <v>0.2097</v>
+        <v>0.2098</v>
       </c>
       <c r="D214">
         <v>0.2117</v>
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4194</v>
+        <v>0.4196</v>
       </c>
       <c r="C215">
-        <v>0.2076</v>
+        <v>0.2077</v>
       </c>
       <c r="D215">
-        <v>0.2118</v>
+        <v>0.2119</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4162</v>
+        <v>0.4164</v>
       </c>
       <c r="C216">
-        <v>0.2046</v>
+        <v>0.2047</v>
       </c>
       <c r="D216">
-        <v>0.2116</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.413</v>
+        <v>0.4133</v>
       </c>
       <c r="C217">
-        <v>0.2018</v>
+        <v>0.2019</v>
       </c>
       <c r="D217">
-        <v>0.2112</v>
+        <v>0.2113</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4104</v>
+        <v>0.4106</v>
       </c>
       <c r="C218">
-        <v>0.1997</v>
+        <v>0.1999</v>
       </c>
       <c r="D218">
-        <v>0.2106</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4079</v>
+        <v>0.4082</v>
       </c>
       <c r="C219">
-        <v>0.1978</v>
+        <v>0.1979</v>
       </c>
       <c r="D219">
-        <v>0.2101</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4048</v>
+        <v>0.405</v>
       </c>
       <c r="C220">
-        <v>0.1951</v>
+        <v>0.1953</v>
       </c>
       <c r="D220">
-        <v>0.2097</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4013</v>
+        <v>0.4016</v>
       </c>
       <c r="C221">
-        <v>0.1927</v>
+        <v>0.1929</v>
       </c>
       <c r="D221">
-        <v>0.2086</v>
+        <v>0.2087</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3993</v>
+        <v>0.3996</v>
       </c>
       <c r="C222">
-        <v>0.1916</v>
+        <v>0.1918</v>
       </c>
       <c r="D222">
-        <v>0.2077</v>
+        <v>0.2078</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3973</v>
+        <v>0.3976</v>
       </c>
       <c r="C223">
-        <v>0.1904</v>
+        <v>0.1905</v>
       </c>
       <c r="D223">
-        <v>0.2069</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,10 +4272,10 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3965</v>
+        <v>0.3968</v>
       </c>
       <c r="C224">
-        <v>0.19</v>
+        <v>0.1901</v>
       </c>
       <c r="D224">
         <v>0.2066</v>
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3963</v>
+        <v>0.3966</v>
       </c>
       <c r="C225">
-        <v>0.1903</v>
+        <v>0.1905</v>
       </c>
       <c r="D225">
-        <v>0.206</v>
+        <v>0.2061</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3969</v>
+        <v>0.3972</v>
       </c>
       <c r="C226">
-        <v>0.191</v>
+        <v>0.1912</v>
       </c>
       <c r="D226">
-        <v>0.2059</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4004</v>
+        <v>0.4006</v>
       </c>
       <c r="C227">
-        <v>0.1943</v>
+        <v>0.1944</v>
       </c>
       <c r="D227">
-        <v>0.2061</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.405</v>
+        <v>0.4053</v>
       </c>
       <c r="C228">
-        <v>0.1983</v>
+        <v>0.1985</v>
       </c>
       <c r="D228">
-        <v>0.2067</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4104</v>
+        <v>0.4106</v>
       </c>
       <c r="C229">
-        <v>0.2029</v>
+        <v>0.2031</v>
       </c>
       <c r="D229">
-        <v>0.2074</v>
+        <v>0.2075</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4174</v>
+        <v>0.4176</v>
       </c>
       <c r="C230">
-        <v>0.2086</v>
+        <v>0.2088</v>
       </c>
       <c r="D230">
-        <v>0.2087</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4168</v>
+        <v>0.417</v>
       </c>
       <c r="C231">
-        <v>0.2128</v>
+        <v>0.213</v>
       </c>
       <c r="D231">
-        <v>0.204</v>
+        <v>0.2041</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,10 +4384,10 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4153</v>
+        <v>0.4156</v>
       </c>
       <c r="C232">
-        <v>0.2157</v>
+        <v>0.2159</v>
       </c>
       <c r="D232">
         <v>0.1997</v>
@@ -4398,10 +4398,10 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4133</v>
+        <v>0.4135</v>
       </c>
       <c r="C233">
-        <v>0.2175</v>
+        <v>0.2176</v>
       </c>
       <c r="D233">
         <v>0.1958</v>
@@ -4412,10 +4412,10 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4111</v>
+        <v>0.4113</v>
       </c>
       <c r="C234">
-        <v>0.2188</v>
+        <v>0.219</v>
       </c>
       <c r="D234">
         <v>0.1923</v>
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4096</v>
+        <v>0.4098</v>
       </c>
       <c r="C235">
-        <v>0.2203</v>
+        <v>0.2205</v>
       </c>
       <c r="D235">
-        <v>0.1893</v>
+        <v>0.1894</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,10 +4440,10 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4088</v>
+        <v>0.4089</v>
       </c>
       <c r="C236">
-        <v>0.222</v>
+        <v>0.2222</v>
       </c>
       <c r="D236">
         <v>0.1867</v>
@@ -4454,10 +4454,10 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4081</v>
+        <v>0.4083</v>
       </c>
       <c r="C237">
-        <v>0.2236</v>
+        <v>0.2237</v>
       </c>
       <c r="D237">
         <v>0.1846</v>
@@ -4468,10 +4468,10 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4079</v>
+        <v>0.4081</v>
       </c>
       <c r="C238">
-        <v>0.2252</v>
+        <v>0.2254</v>
       </c>
       <c r="D238">
         <v>0.1827</v>
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4074</v>
+        <v>0.4075</v>
       </c>
       <c r="C239">
-        <v>0.2262</v>
+        <v>0.2264</v>
       </c>
       <c r="D239">
-        <v>0.1811</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,10 +4496,10 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4079</v>
+        <v>0.408</v>
       </c>
       <c r="C240">
-        <v>0.2279</v>
+        <v>0.2281</v>
       </c>
       <c r="D240">
         <v>0.18</v>
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4085</v>
+        <v>0.4087</v>
       </c>
       <c r="C241">
-        <v>0.2294</v>
+        <v>0.2295</v>
       </c>
       <c r="D241">
-        <v>0.1791</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4087</v>
+        <v>0.4089</v>
       </c>
       <c r="C242">
-        <v>0.2302</v>
+        <v>0.2303</v>
       </c>
       <c r="D242">
-        <v>0.1785</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,10 +4538,10 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4089</v>
+        <v>0.4091</v>
       </c>
       <c r="C243">
-        <v>0.2308</v>
+        <v>0.2309</v>
       </c>
       <c r="D243">
         <v>0.1782</v>
@@ -4552,10 +4552,10 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.409</v>
+        <v>0.4092</v>
       </c>
       <c r="C244">
-        <v>0.2312</v>
+        <v>0.2314</v>
       </c>
       <c r="D244">
         <v>0.1778</v>
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4092</v>
+        <v>0.4094</v>
       </c>
       <c r="C245">
-        <v>0.2317</v>
+        <v>0.2318</v>
       </c>
       <c r="D245">
-        <v>0.1775</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4087</v>
+        <v>0.4089</v>
       </c>
       <c r="C246">
-        <v>0.2313</v>
+        <v>0.2314</v>
       </c>
       <c r="D246">
-        <v>0.1774</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4066</v>
+        <v>0.4068</v>
       </c>
       <c r="C247">
-        <v>0.2291</v>
+        <v>0.2292</v>
       </c>
       <c r="D247">
-        <v>0.1775</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4039</v>
+        <v>0.4041</v>
       </c>
       <c r="C248">
-        <v>0.2265</v>
+        <v>0.2267</v>
       </c>
       <c r="D248">
-        <v>0.1774</v>
+        <v>0.1775</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4003</v>
+        <v>0.4005</v>
       </c>
       <c r="C249">
-        <v>0.2226</v>
+        <v>0.2227</v>
       </c>
       <c r="D249">
-        <v>0.1776</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3964</v>
+        <v>0.3966</v>
       </c>
       <c r="C250">
-        <v>0.2184</v>
+        <v>0.2185</v>
       </c>
       <c r="D250">
-        <v>0.178</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3921</v>
+        <v>0.3923</v>
       </c>
       <c r="C251">
-        <v>0.214</v>
+        <v>0.2141</v>
       </c>
       <c r="D251">
-        <v>0.1781</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3886</v>
+        <v>0.3888</v>
       </c>
       <c r="C252">
-        <v>0.2102</v>
+        <v>0.2103</v>
       </c>
       <c r="D252">
-        <v>0.1784</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.384</v>
+        <v>0.3843</v>
       </c>
       <c r="C253">
-        <v>0.2056</v>
+        <v>0.2057</v>
       </c>
       <c r="D253">
-        <v>0.1784</v>
+        <v>0.1786</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2011 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2011 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2246</v>
+        <v>0.2229</v>
       </c>
       <c r="C2">
-        <v>0.0819</v>
+        <v>0.0815</v>
       </c>
       <c r="D2">
-        <v>0.1427</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.23</v>
+        <v>0.2284</v>
       </c>
       <c r="C3">
-        <v>0.0838</v>
+        <v>0.0835</v>
       </c>
       <c r="D3">
-        <v>0.1462</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2471</v>
+        <v>0.2454</v>
       </c>
       <c r="C4">
-        <v>0.09320000000000001</v>
+        <v>0.0929</v>
       </c>
       <c r="D4">
-        <v>0.1539</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2643</v>
+        <v>0.2626</v>
       </c>
       <c r="C5">
-        <v>0.1027</v>
+        <v>0.1023</v>
       </c>
       <c r="D5">
-        <v>0.1616</v>
+        <v>0.1603</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2812</v>
+        <v>0.2795</v>
       </c>
       <c r="C6">
-        <v>0.1122</v>
+        <v>0.1117</v>
       </c>
       <c r="D6">
-        <v>0.169</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2977</v>
+        <v>0.2959</v>
       </c>
       <c r="C7">
-        <v>0.1219</v>
+        <v>0.1214</v>
       </c>
       <c r="D7">
-        <v>0.1758</v>
+        <v>0.1745</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3139</v>
+        <v>0.3122</v>
       </c>
       <c r="C8">
-        <v>0.1317</v>
+        <v>0.1313</v>
       </c>
       <c r="D8">
-        <v>0.1821</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3288</v>
+        <v>0.3271</v>
       </c>
       <c r="C9">
-        <v>0.1408</v>
+        <v>0.1404</v>
       </c>
       <c r="D9">
-        <v>0.188</v>
+        <v>0.1868</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3433</v>
+        <v>0.3417</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.1495</v>
       </c>
       <c r="D10">
-        <v>0.1933</v>
+        <v>0.1921</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3568</v>
+        <v>0.3553</v>
       </c>
       <c r="C11">
-        <v>0.1585</v>
+        <v>0.1581</v>
       </c>
       <c r="D11">
-        <v>0.1983</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3707</v>
+        <v>0.3692</v>
       </c>
       <c r="C12">
-        <v>0.1672</v>
+        <v>0.1668</v>
       </c>
       <c r="D12">
-        <v>0.2035</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3833</v>
+        <v>0.3819</v>
       </c>
       <c r="C13">
-        <v>0.1751</v>
+        <v>0.1747</v>
       </c>
       <c r="D13">
-        <v>0.2082</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3952</v>
+        <v>0.3939</v>
       </c>
       <c r="C14">
-        <v>0.1823</v>
+        <v>0.1819</v>
       </c>
       <c r="D14">
-        <v>0.2129</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.4064</v>
+        <v>0.4051</v>
       </c>
       <c r="C15">
-        <v>0.1886</v>
+        <v>0.1882</v>
       </c>
       <c r="D15">
-        <v>0.2178</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.4163</v>
+        <v>0.4152</v>
       </c>
       <c r="C16">
-        <v>0.1939</v>
+        <v>0.1935</v>
       </c>
       <c r="D16">
-        <v>0.2225</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.4257</v>
+        <v>0.4247</v>
       </c>
       <c r="C17">
-        <v>0.1991</v>
+        <v>0.1988</v>
       </c>
       <c r="D17">
-        <v>0.2266</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.4336</v>
+        <v>0.4327</v>
       </c>
       <c r="C18">
-        <v>0.2038</v>
+        <v>0.2035</v>
       </c>
       <c r="D18">
-        <v>0.2298</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.4411</v>
+        <v>0.4402</v>
       </c>
       <c r="C19">
-        <v>0.2084</v>
+        <v>0.2081</v>
       </c>
       <c r="D19">
-        <v>0.2327</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.4499</v>
+        <v>0.4491</v>
       </c>
       <c r="C20">
-        <v>0.2124</v>
+        <v>0.2121</v>
       </c>
       <c r="D20">
-        <v>0.2375</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.458</v>
+        <v>0.4572</v>
       </c>
       <c r="C21">
-        <v>0.2164</v>
+        <v>0.2161</v>
       </c>
       <c r="D21">
-        <v>0.2416</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4654</v>
+        <v>0.4647</v>
       </c>
       <c r="C22">
-        <v>0.2203</v>
+        <v>0.22</v>
       </c>
       <c r="D22">
-        <v>0.2452</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4701</v>
+        <v>0.4694</v>
       </c>
       <c r="C23">
-        <v>0.2218</v>
+        <v>0.2215</v>
       </c>
       <c r="D23">
-        <v>0.2483</v>
+        <v>0.2478</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4628</v>
+        <v>0.4622</v>
       </c>
       <c r="C24">
-        <v>0.2161</v>
+        <v>0.2159</v>
       </c>
       <c r="D24">
-        <v>0.2467</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4552</v>
+        <v>0.4548</v>
       </c>
       <c r="C25">
-        <v>0.2105</v>
+        <v>0.2103</v>
       </c>
       <c r="D25">
-        <v>0.2447</v>
+        <v>0.2445</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4478</v>
+        <v>0.4475</v>
       </c>
       <c r="C26">
-        <v>0.2052</v>
+        <v>0.2051</v>
       </c>
       <c r="D26">
-        <v>0.2426</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4392</v>
+        <v>0.4391</v>
       </c>
       <c r="C27">
         <v>0.1991</v>
       </c>
       <c r="D27">
-        <v>0.2401</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1534,7 +1534,7 @@
         <v>0.1927</v>
       </c>
       <c r="D28">
-        <v>0.2377</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.403</v>
+        <v>0.4031</v>
       </c>
       <c r="C32">
         <v>0.1721</v>
       </c>
       <c r="D32">
-        <v>0.2309</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3981</v>
+        <v>0.3982</v>
       </c>
       <c r="C33">
         <v>0.1686</v>
       </c>
       <c r="D33">
-        <v>0.2295</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3937</v>
+        <v>0.3938</v>
       </c>
       <c r="C34">
         <v>0.1657</v>
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3896</v>
+        <v>0.3897</v>
       </c>
       <c r="C35">
-        <v>0.1632</v>
+        <v>0.1633</v>
       </c>
       <c r="D35">
-        <v>0.2264</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3866</v>
+        <v>0.3867</v>
       </c>
       <c r="C36">
         <v>0.1618</v>
       </c>
       <c r="D36">
-        <v>0.2248</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1668,10 +1668,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.382</v>
+        <v>0.3821</v>
       </c>
       <c r="C38">
-        <v>0.16</v>
+        <v>0.1599</v>
       </c>
       <c r="D38">
         <v>0.2221</v>
@@ -1685,7 +1685,7 @@
         <v>0.3811</v>
       </c>
       <c r="C39">
-        <v>0.1599</v>
+        <v>0.1598</v>
       </c>
       <c r="D39">
         <v>0.2212</v>
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3783</v>
+        <v>0.3784</v>
       </c>
       <c r="C40">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D40">
-        <v>0.2182</v>
+        <v>0.2183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>0.3762</v>
       </c>
       <c r="C41">
-        <v>0.1605</v>
+        <v>0.1604</v>
       </c>
       <c r="D41">
-        <v>0.2157</v>
+        <v>0.2159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3751</v>
+        <v>0.3752</v>
       </c>
       <c r="C42">
-        <v>0.1607</v>
+        <v>0.1606</v>
       </c>
       <c r="D42">
-        <v>0.2144</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>0.3745</v>
       </c>
       <c r="C43">
-        <v>0.1609</v>
+        <v>0.1608</v>
       </c>
       <c r="D43">
-        <v>0.2135</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1755,10 +1755,10 @@
         <v>0.3739</v>
       </c>
       <c r="C44">
-        <v>0.1607</v>
+        <v>0.1606</v>
       </c>
       <c r="D44">
-        <v>0.2132</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,10 +1766,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3743</v>
+        <v>0.3742</v>
       </c>
       <c r="C45">
-        <v>0.1602</v>
+        <v>0.1601</v>
       </c>
       <c r="D45">
         <v>0.2141</v>
@@ -1780,10 +1780,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3748</v>
+        <v>0.3747</v>
       </c>
       <c r="C46">
-        <v>0.1593</v>
+        <v>0.1592</v>
       </c>
       <c r="D46">
         <v>0.2155</v>
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3752</v>
+        <v>0.375</v>
       </c>
       <c r="C47">
-        <v>0.158</v>
+        <v>0.1578</v>
       </c>
       <c r="D47">
-        <v>0.2172</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3763</v>
+        <v>0.376</v>
       </c>
       <c r="C48">
-        <v>0.1573</v>
+        <v>0.1571</v>
       </c>
       <c r="D48">
-        <v>0.219</v>
+        <v>0.2189</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3771</v>
+        <v>0.3767</v>
       </c>
       <c r="C49">
-        <v>0.1562</v>
+        <v>0.156</v>
       </c>
       <c r="D49">
-        <v>0.2209</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3775</v>
+        <v>0.3771</v>
       </c>
       <c r="C50">
-        <v>0.1547</v>
+        <v>0.1545</v>
       </c>
       <c r="D50">
-        <v>0.2228</v>
+        <v>0.2226</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3784</v>
+        <v>0.378</v>
       </c>
       <c r="C51">
-        <v>0.1537</v>
+        <v>0.1534</v>
       </c>
       <c r="D51">
-        <v>0.2247</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3792</v>
+        <v>0.3787</v>
       </c>
       <c r="C52">
-        <v>0.1521</v>
+        <v>0.1519</v>
       </c>
       <c r="D52">
-        <v>0.2271</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3801</v>
+        <v>0.3796</v>
       </c>
       <c r="C53">
-        <v>0.1505</v>
+        <v>0.1503</v>
       </c>
       <c r="D53">
-        <v>0.2296</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3822</v>
+        <v>0.3816</v>
       </c>
       <c r="C54">
-        <v>0.1492</v>
+        <v>0.1489</v>
       </c>
       <c r="D54">
-        <v>0.233</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3846</v>
+        <v>0.384</v>
       </c>
       <c r="C55">
-        <v>0.1484</v>
+        <v>0.1481</v>
       </c>
       <c r="D55">
-        <v>0.2363</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3882</v>
+        <v>0.3875</v>
       </c>
       <c r="C56">
-        <v>0.1477</v>
+        <v>0.1474</v>
       </c>
       <c r="D56">
-        <v>0.2405</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3912</v>
+        <v>0.3904</v>
       </c>
       <c r="C57">
-        <v>0.1466</v>
+        <v>0.1463</v>
       </c>
       <c r="D57">
-        <v>0.2446</v>
+        <v>0.2441</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3945</v>
+        <v>0.3936</v>
       </c>
       <c r="C58">
-        <v>0.1458</v>
+        <v>0.1455</v>
       </c>
       <c r="D58">
-        <v>0.2487</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3963</v>
+        <v>0.3954</v>
       </c>
       <c r="C59">
-        <v>0.144</v>
+        <v>0.1437</v>
       </c>
       <c r="D59">
-        <v>0.2522</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3972</v>
+        <v>0.3963</v>
       </c>
       <c r="C60">
-        <v>0.1417</v>
+        <v>0.1414</v>
       </c>
       <c r="D60">
-        <v>0.2555</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3976</v>
+        <v>0.3967</v>
       </c>
       <c r="C61">
-        <v>0.1395</v>
+        <v>0.1392</v>
       </c>
       <c r="D61">
-        <v>0.2581</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3971</v>
+        <v>0.3962</v>
       </c>
       <c r="C62">
-        <v>0.1371</v>
+        <v>0.1368</v>
       </c>
       <c r="D62">
-        <v>0.26</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3965</v>
+        <v>0.3956</v>
       </c>
       <c r="C63">
-        <v>0.1349</v>
+        <v>0.1346</v>
       </c>
       <c r="D63">
-        <v>0.2616</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3952</v>
+        <v>0.3942</v>
       </c>
       <c r="C64">
-        <v>0.1324</v>
+        <v>0.1321</v>
       </c>
       <c r="D64">
-        <v>0.2627</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3931</v>
+        <v>0.3922</v>
       </c>
       <c r="C65">
-        <v>0.1303</v>
+        <v>0.1299</v>
       </c>
       <c r="D65">
-        <v>0.2629</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3914</v>
+        <v>0.3905</v>
       </c>
       <c r="C66">
-        <v>0.1287</v>
+        <v>0.1284</v>
       </c>
       <c r="D66">
-        <v>0.2627</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3904</v>
+        <v>0.3895</v>
       </c>
       <c r="C67">
-        <v>0.1279</v>
+        <v>0.1276</v>
       </c>
       <c r="D67">
-        <v>0.2625</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3887</v>
+        <v>0.3877</v>
       </c>
       <c r="C68">
-        <v>0.1265</v>
+        <v>0.1261</v>
       </c>
       <c r="D68">
-        <v>0.2622</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3874</v>
+        <v>0.3864</v>
       </c>
       <c r="C69">
-        <v>0.1255</v>
+        <v>0.1252</v>
       </c>
       <c r="D69">
-        <v>0.2619</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3861</v>
+        <v>0.3851</v>
       </c>
       <c r="C70">
-        <v>0.1244</v>
+        <v>0.1241</v>
       </c>
       <c r="D70">
-        <v>0.2616</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3844</v>
+        <v>0.3834</v>
       </c>
       <c r="C71">
-        <v>0.1233</v>
+        <v>0.1229</v>
       </c>
       <c r="D71">
-        <v>0.2612</v>
+        <v>0.2605</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3822</v>
+        <v>0.3812</v>
       </c>
       <c r="C72">
-        <v>0.1219</v>
+        <v>0.1215</v>
       </c>
       <c r="D72">
-        <v>0.2603</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3805</v>
+        <v>0.3795</v>
       </c>
       <c r="C73">
-        <v>0.1212</v>
+        <v>0.1208</v>
       </c>
       <c r="D73">
-        <v>0.2594</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="C74">
-        <v>0.1194</v>
+        <v>0.119</v>
       </c>
       <c r="D74">
-        <v>0.2577</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3735</v>
+        <v>0.3725</v>
       </c>
       <c r="C75">
-        <v>0.1174</v>
+        <v>0.117</v>
       </c>
       <c r="D75">
-        <v>0.2562</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3692</v>
+        <v>0.3681</v>
       </c>
       <c r="C76">
-        <v>0.1153</v>
+        <v>0.115</v>
       </c>
       <c r="D76">
-        <v>0.2539</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3652</v>
+        <v>0.3642</v>
       </c>
       <c r="C77">
-        <v>0.1133</v>
+        <v>0.113</v>
       </c>
       <c r="D77">
-        <v>0.2519</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3624</v>
+        <v>0.3613</v>
       </c>
       <c r="C78">
-        <v>0.1124</v>
+        <v>0.112</v>
       </c>
       <c r="D78">
-        <v>0.25</v>
+        <v>0.2493</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3605</v>
+        <v>0.3594</v>
       </c>
       <c r="C79">
-        <v>0.1119</v>
+        <v>0.1115</v>
       </c>
       <c r="D79">
-        <v>0.2486</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3594</v>
+        <v>0.3583</v>
       </c>
       <c r="C80">
-        <v>0.1117</v>
+        <v>0.1114</v>
       </c>
       <c r="D80">
-        <v>0.2477</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3596</v>
+        <v>0.3585</v>
       </c>
       <c r="C81">
-        <v>0.1117</v>
+        <v>0.1113</v>
       </c>
       <c r="D81">
-        <v>0.2479</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3601</v>
+        <v>0.3589</v>
       </c>
       <c r="C82">
-        <v>0.1118</v>
+        <v>0.1115</v>
       </c>
       <c r="D82">
-        <v>0.2483</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3617</v>
+        <v>0.3605</v>
       </c>
       <c r="C83">
-        <v>0.1124</v>
+        <v>0.112</v>
       </c>
       <c r="D83">
-        <v>0.2493</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.364</v>
+        <v>0.3628</v>
       </c>
       <c r="C84">
-        <v>0.1133</v>
+        <v>0.1129</v>
       </c>
       <c r="D84">
-        <v>0.2508</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3666</v>
+        <v>0.3653</v>
       </c>
       <c r="C85">
-        <v>0.114</v>
+        <v>0.1136</v>
       </c>
       <c r="D85">
-        <v>0.2526</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3688</v>
+        <v>0.3675</v>
       </c>
       <c r="C86">
-        <v>0.1141</v>
+        <v>0.1137</v>
       </c>
       <c r="D86">
-        <v>0.2547</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3715</v>
+        <v>0.3702</v>
       </c>
       <c r="C87">
-        <v>0.1144</v>
+        <v>0.114</v>
       </c>
       <c r="D87">
-        <v>0.2571</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.375</v>
+        <v>0.3736</v>
       </c>
       <c r="C88">
-        <v>0.1152</v>
+        <v>0.1148</v>
       </c>
       <c r="D88">
-        <v>0.2598</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3807</v>
+        <v>0.3793</v>
       </c>
       <c r="C89">
-        <v>0.1177</v>
+        <v>0.1173</v>
       </c>
       <c r="D89">
-        <v>0.2629</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3864</v>
+        <v>0.385</v>
       </c>
       <c r="C90">
-        <v>0.1204</v>
+        <v>0.12</v>
       </c>
       <c r="D90">
-        <v>0.2661</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3918</v>
+        <v>0.3904</v>
       </c>
       <c r="C91">
-        <v>0.1224</v>
+        <v>0.122</v>
       </c>
       <c r="D91">
-        <v>0.2694</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3975</v>
+        <v>0.396</v>
       </c>
       <c r="C92">
-        <v>0.1246</v>
+        <v>0.1242</v>
       </c>
       <c r="D92">
-        <v>0.2729</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4029</v>
+        <v>0.4013</v>
       </c>
       <c r="C93">
-        <v>0.1262</v>
+        <v>0.1258</v>
       </c>
       <c r="D93">
-        <v>0.2767</v>
+        <v>0.2756</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4094</v>
+        <v>0.4078</v>
       </c>
       <c r="C94">
-        <v>0.1289</v>
+        <v>0.1285</v>
       </c>
       <c r="D94">
-        <v>0.2805</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.416</v>
+        <v>0.4144</v>
       </c>
       <c r="C95">
-        <v>0.1313</v>
+        <v>0.1308</v>
       </c>
       <c r="D95">
-        <v>0.2848</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4226</v>
+        <v>0.4209</v>
       </c>
       <c r="C96">
-        <v>0.1336</v>
+        <v>0.1332</v>
       </c>
       <c r="D96">
-        <v>0.289</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4292</v>
+        <v>0.4275</v>
       </c>
       <c r="C97">
-        <v>0.136</v>
+        <v>0.1356</v>
       </c>
       <c r="D97">
-        <v>0.2931</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4344</v>
+        <v>0.4327</v>
       </c>
       <c r="C98">
-        <v>0.1374</v>
+        <v>0.1369</v>
       </c>
       <c r="D98">
-        <v>0.2971</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4404</v>
+        <v>0.4386</v>
       </c>
       <c r="C99">
-        <v>0.1393</v>
+        <v>0.1389</v>
       </c>
       <c r="D99">
-        <v>0.3011</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4466</v>
+        <v>0.4448</v>
       </c>
       <c r="C100">
-        <v>0.1412</v>
+        <v>0.1408</v>
       </c>
       <c r="D100">
-        <v>0.3054</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.4522</v>
+        <v>0.4505</v>
       </c>
       <c r="C101">
-        <v>0.1432</v>
+        <v>0.1428</v>
       </c>
       <c r="D101">
-        <v>0.309</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.4587</v>
+        <v>0.4569</v>
       </c>
       <c r="C102">
-        <v>0.1462</v>
+        <v>0.1458</v>
       </c>
       <c r="D102">
-        <v>0.3125</v>
+        <v>0.3111</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.4649</v>
+        <v>0.4631</v>
       </c>
       <c r="C103">
-        <v>0.1494</v>
+        <v>0.149</v>
       </c>
       <c r="D103">
-        <v>0.3155</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.4694</v>
+        <v>0.4675</v>
       </c>
       <c r="C104">
-        <v>0.1512</v>
+        <v>0.1508</v>
       </c>
       <c r="D104">
-        <v>0.3181</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.4729</v>
+        <v>0.471</v>
       </c>
       <c r="C105">
-        <v>0.1526</v>
+        <v>0.1522</v>
       </c>
       <c r="D105">
-        <v>0.3203</v>
+        <v>0.3188</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.4761</v>
+        <v>0.4742</v>
       </c>
       <c r="C106">
-        <v>0.154</v>
+        <v>0.1535</v>
       </c>
       <c r="D106">
-        <v>0.3221</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.4787</v>
+        <v>0.4768</v>
       </c>
       <c r="C107">
-        <v>0.155</v>
+        <v>0.1545</v>
       </c>
       <c r="D107">
-        <v>0.3237</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.4809</v>
+        <v>0.479</v>
       </c>
       <c r="C108">
-        <v>0.156</v>
+        <v>0.1555</v>
       </c>
       <c r="D108">
-        <v>0.3249</v>
+        <v>0.3235</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.481</v>
+        <v>0.4791</v>
       </c>
       <c r="C109">
-        <v>0.1553</v>
+        <v>0.1548</v>
       </c>
       <c r="D109">
-        <v>0.3257</v>
+        <v>0.3242</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.4806</v>
+        <v>0.4787</v>
       </c>
       <c r="C110">
-        <v>0.1543</v>
+        <v>0.1539</v>
       </c>
       <c r="D110">
-        <v>0.3263</v>
+        <v>0.3249</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.4808</v>
+        <v>0.4789</v>
       </c>
       <c r="C111">
-        <v>0.1542</v>
+        <v>0.1538</v>
       </c>
       <c r="D111">
-        <v>0.3266</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.4806</v>
+        <v>0.4787</v>
       </c>
       <c r="C112">
-        <v>0.1538</v>
+        <v>0.1534</v>
       </c>
       <c r="D112">
-        <v>0.3268</v>
+        <v>0.3253</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.4796</v>
+        <v>0.4778</v>
       </c>
       <c r="C113">
-        <v>0.153</v>
+        <v>0.1526</v>
       </c>
       <c r="D113">
-        <v>0.3266</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.4779</v>
+        <v>0.4761</v>
       </c>
       <c r="C114">
-        <v>0.1517</v>
+        <v>0.1513</v>
       </c>
       <c r="D114">
-        <v>0.3262</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.4758</v>
+        <v>0.4739</v>
       </c>
       <c r="C115">
-        <v>0.1506</v>
+        <v>0.1502</v>
       </c>
       <c r="D115">
-        <v>0.3251</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.4728</v>
+        <v>0.4709</v>
       </c>
       <c r="C116">
-        <v>0.149</v>
+        <v>0.1486</v>
       </c>
       <c r="D116">
-        <v>0.3238</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.47</v>
+        <v>0.4682</v>
       </c>
       <c r="C117">
-        <v>0.1475</v>
+        <v>0.1471</v>
       </c>
       <c r="D117">
-        <v>0.3226</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.4673</v>
+        <v>0.4655</v>
       </c>
       <c r="C118">
-        <v>0.1458</v>
+        <v>0.1454</v>
       </c>
       <c r="D118">
-        <v>0.3215</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.4642</v>
+        <v>0.4623</v>
       </c>
       <c r="C119">
-        <v>0.1438</v>
+        <v>0.1434</v>
       </c>
       <c r="D119">
-        <v>0.3204</v>
+        <v>0.3189</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.4607</v>
+        <v>0.4588</v>
       </c>
       <c r="C120">
-        <v>0.142</v>
+        <v>0.1416</v>
       </c>
       <c r="D120">
-        <v>0.3187</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.4568</v>
+        <v>0.4549</v>
       </c>
       <c r="C121">
-        <v>0.1397</v>
+        <v>0.1393</v>
       </c>
       <c r="D121">
-        <v>0.3171</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.4517</v>
+        <v>0.4498</v>
       </c>
       <c r="C122">
-        <v>0.1361</v>
+        <v>0.1357</v>
       </c>
       <c r="D122">
-        <v>0.3156</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.4464</v>
+        <v>0.4445</v>
       </c>
       <c r="C123">
-        <v>0.132</v>
+        <v>0.1317</v>
       </c>
       <c r="D123">
-        <v>0.3144</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="C124">
-        <v>0.1295</v>
+        <v>0.1292</v>
       </c>
       <c r="D124">
-        <v>0.3135</v>
+        <v>0.3119</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.4403</v>
+        <v>0.4383</v>
       </c>
       <c r="C125">
-        <v>0.1274</v>
+        <v>0.127</v>
       </c>
       <c r="D125">
-        <v>0.3129</v>
+        <v>0.3113</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.4375</v>
+        <v>0.4355</v>
       </c>
       <c r="C126">
-        <v>0.1249</v>
+        <v>0.1246</v>
       </c>
       <c r="D126">
-        <v>0.3126</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.4349</v>
+        <v>0.4329</v>
       </c>
       <c r="C127">
-        <v>0.1224</v>
+        <v>0.1221</v>
       </c>
       <c r="D127">
-        <v>0.3125</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4327</v>
+        <v>0.4307</v>
       </c>
       <c r="C128">
-        <v>0.1201</v>
+        <v>0.1197</v>
       </c>
       <c r="D128">
-        <v>0.3126</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4303</v>
+        <v>0.4282</v>
       </c>
       <c r="C129">
-        <v>0.1176</v>
+        <v>0.1172</v>
       </c>
       <c r="D129">
-        <v>0.3127</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.428</v>
+        <v>0.4259</v>
       </c>
       <c r="C130">
-        <v>0.1151</v>
+        <v>0.1147</v>
       </c>
       <c r="D130">
-        <v>0.3129</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4259</v>
+        <v>0.4237</v>
       </c>
       <c r="C131">
-        <v>0.1125</v>
+        <v>0.1121</v>
       </c>
       <c r="D131">
-        <v>0.3133</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4244</v>
+        <v>0.4222</v>
       </c>
       <c r="C132">
-        <v>0.1105</v>
+        <v>0.1101</v>
       </c>
       <c r="D132">
-        <v>0.3139</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4227</v>
+        <v>0.4205</v>
       </c>
       <c r="C133">
-        <v>0.1082</v>
+        <v>0.1078</v>
       </c>
       <c r="D133">
-        <v>0.3146</v>
+        <v>0.3128</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4215</v>
+        <v>0.4193</v>
       </c>
       <c r="C134">
-        <v>0.1063</v>
+        <v>0.1059</v>
       </c>
       <c r="D134">
-        <v>0.3153</v>
+        <v>0.3134</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4207</v>
+        <v>0.4184</v>
       </c>
       <c r="C135">
-        <v>0.1043</v>
+        <v>0.1039</v>
       </c>
       <c r="D135">
-        <v>0.3164</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4214</v>
+        <v>0.4191</v>
       </c>
       <c r="C136">
-        <v>0.1038</v>
+        <v>0.1034</v>
       </c>
       <c r="D136">
-        <v>0.3176</v>
+        <v>0.3157</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4216</v>
+        <v>0.4193</v>
       </c>
       <c r="C137">
-        <v>0.103</v>
+        <v>0.1026</v>
       </c>
       <c r="D137">
-        <v>0.3186</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4221</v>
+        <v>0.4198</v>
       </c>
       <c r="C138">
-        <v>0.1027</v>
+        <v>0.1022</v>
       </c>
       <c r="D138">
-        <v>0.3194</v>
+        <v>0.3175</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4223</v>
+        <v>0.42</v>
       </c>
       <c r="C139">
-        <v>0.1023</v>
+        <v>0.1019</v>
       </c>
       <c r="D139">
-        <v>0.32</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4221</v>
+        <v>0.4198</v>
       </c>
       <c r="C140">
-        <v>0.1018</v>
+        <v>0.1013</v>
       </c>
       <c r="D140">
-        <v>0.3204</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4224</v>
+        <v>0.42</v>
       </c>
       <c r="C141">
-        <v>0.1019</v>
+        <v>0.1014</v>
       </c>
       <c r="D141">
-        <v>0.3205</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4219</v>
+        <v>0.4195</v>
       </c>
       <c r="C142">
-        <v>0.1016</v>
+        <v>0.1012</v>
       </c>
       <c r="D142">
-        <v>0.3203</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4218</v>
+        <v>0.4194</v>
       </c>
       <c r="C143">
-        <v>0.102</v>
+        <v>0.1015</v>
       </c>
       <c r="D143">
-        <v>0.3198</v>
+        <v>0.3179</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4211</v>
+        <v>0.4187</v>
       </c>
       <c r="C144">
-        <v>0.102</v>
+        <v>0.1016</v>
       </c>
       <c r="D144">
-        <v>0.3191</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4202</v>
+        <v>0.4178</v>
       </c>
       <c r="C145">
-        <v>0.1021</v>
+        <v>0.1016</v>
       </c>
       <c r="D145">
-        <v>0.3181</v>
+        <v>0.3161</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.4185</v>
+        <v>0.4161</v>
       </c>
       <c r="C146">
-        <v>0.1017</v>
+        <v>0.1012</v>
       </c>
       <c r="D146">
-        <v>0.3168</v>
+        <v>0.3149</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4176</v>
+        <v>0.4152</v>
       </c>
       <c r="C147">
-        <v>0.1022</v>
+        <v>0.1018</v>
       </c>
       <c r="D147">
-        <v>0.3153</v>
+        <v>0.3134</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4169</v>
+        <v>0.4144</v>
       </c>
       <c r="C148">
-        <v>0.1032</v>
+        <v>0.1027</v>
       </c>
       <c r="D148">
-        <v>0.3137</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4151</v>
+        <v>0.4126</v>
       </c>
       <c r="C149">
-        <v>0.1033</v>
+        <v>0.1028</v>
       </c>
       <c r="D149">
-        <v>0.3118</v>
+        <v>0.3098</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.413</v>
+        <v>0.4105</v>
       </c>
       <c r="C150">
-        <v>0.1031</v>
+        <v>0.1027</v>
       </c>
       <c r="D150">
-        <v>0.3098</v>
+        <v>0.3079</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4107</v>
+        <v>0.4082</v>
       </c>
       <c r="C151">
-        <v>0.103</v>
+        <v>0.1026</v>
       </c>
       <c r="D151">
-        <v>0.3077</v>
+        <v>0.3057</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4095</v>
+        <v>0.4071</v>
       </c>
       <c r="C152">
-        <v>0.1026</v>
+        <v>0.1022</v>
       </c>
       <c r="D152">
-        <v>0.3069</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4089</v>
+        <v>0.4065</v>
       </c>
       <c r="C153">
-        <v>0.1029</v>
+        <v>0.1024</v>
       </c>
       <c r="D153">
-        <v>0.306</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4103</v>
+        <v>0.4079</v>
       </c>
       <c r="C154">
-        <v>0.1035</v>
+        <v>0.103</v>
       </c>
       <c r="D154">
-        <v>0.3068</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4112</v>
+        <v>0.4089</v>
       </c>
       <c r="C155">
-        <v>0.1042</v>
+        <v>0.1037</v>
       </c>
       <c r="D155">
-        <v>0.307</v>
+        <v>0.3051</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4149</v>
+        <v>0.4125</v>
       </c>
       <c r="C156">
-        <v>0.1058</v>
+        <v>0.1053</v>
       </c>
       <c r="D156">
-        <v>0.3091</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4193</v>
+        <v>0.4169</v>
       </c>
       <c r="C157">
-        <v>0.1082</v>
+        <v>0.1077</v>
       </c>
       <c r="D157">
-        <v>0.3111</v>
+        <v>0.3093</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4237</v>
+        <v>0.4213</v>
       </c>
       <c r="C158">
-        <v>0.1107</v>
+        <v>0.1102</v>
       </c>
       <c r="D158">
-        <v>0.313</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4271</v>
+        <v>0.4249</v>
       </c>
       <c r="C159">
-        <v>0.1128</v>
+        <v>0.1123</v>
       </c>
       <c r="D159">
-        <v>0.3143</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4296</v>
+        <v>0.4274</v>
       </c>
       <c r="C160">
-        <v>0.1144</v>
+        <v>0.114</v>
       </c>
       <c r="D160">
-        <v>0.3152</v>
+        <v>0.3135</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.4301</v>
+        <v>0.428</v>
       </c>
       <c r="C161">
-        <v>0.1146</v>
+        <v>0.1141</v>
       </c>
       <c r="D161">
-        <v>0.3155</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4319</v>
+        <v>0.4298</v>
       </c>
       <c r="C162">
-        <v>0.116</v>
+        <v>0.1156</v>
       </c>
       <c r="D162">
-        <v>0.3158</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4334</v>
+        <v>0.4314</v>
       </c>
       <c r="C163">
-        <v>0.1163</v>
+        <v>0.1159</v>
       </c>
       <c r="D163">
-        <v>0.3171</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4338</v>
+        <v>0.4319</v>
       </c>
       <c r="C164">
-        <v>0.116</v>
+        <v>0.1155</v>
       </c>
       <c r="D164">
-        <v>0.3178</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4335</v>
+        <v>0.4317</v>
       </c>
       <c r="C165">
-        <v>0.1156</v>
+        <v>0.1151</v>
       </c>
       <c r="D165">
-        <v>0.3179</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4339</v>
+        <v>0.4322</v>
       </c>
       <c r="C166">
-        <v>0.1158</v>
+        <v>0.1153</v>
       </c>
       <c r="D166">
-        <v>0.318</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4331</v>
+        <v>0.4315</v>
       </c>
       <c r="C167">
-        <v>0.1151</v>
+        <v>0.1147</v>
       </c>
       <c r="D167">
-        <v>0.318</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4308</v>
+        <v>0.4293</v>
       </c>
       <c r="C168">
-        <v>0.1135</v>
+        <v>0.113</v>
       </c>
       <c r="D168">
-        <v>0.3173</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4295</v>
+        <v>0.4282</v>
       </c>
       <c r="C169">
-        <v>0.1124</v>
+        <v>0.1119</v>
       </c>
       <c r="D169">
-        <v>0.3172</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4276</v>
+        <v>0.4264</v>
       </c>
       <c r="C170">
-        <v>0.1111</v>
+        <v>0.1107</v>
       </c>
       <c r="D170">
-        <v>0.3165</v>
+        <v>0.3157</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4263</v>
+        <v>0.4252</v>
       </c>
       <c r="C171">
-        <v>0.1099</v>
+        <v>0.1094</v>
       </c>
       <c r="D171">
-        <v>0.3165</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4232</v>
+        <v>0.4222</v>
       </c>
       <c r="C172">
-        <v>0.1087</v>
+        <v>0.1083</v>
       </c>
       <c r="D172">
-        <v>0.3146</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.4195</v>
+        <v>0.4186</v>
       </c>
       <c r="C173">
-        <v>0.1073</v>
+        <v>0.1069</v>
       </c>
       <c r="D173">
-        <v>0.3122</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4127</v>
+        <v>0.4119</v>
       </c>
       <c r="C174">
-        <v>0.1049</v>
+        <v>0.1045</v>
       </c>
       <c r="D174">
-        <v>0.3078</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4078</v>
+        <v>0.4071</v>
       </c>
       <c r="C175">
-        <v>0.103</v>
+        <v>0.1027</v>
       </c>
       <c r="D175">
-        <v>0.3048</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3994</v>
+        <v>0.3987</v>
       </c>
       <c r="C176">
-        <v>0.09959999999999999</v>
+        <v>0.0992</v>
       </c>
       <c r="D176">
-        <v>0.2998</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.3917</v>
+        <v>0.3911</v>
       </c>
       <c r="C177">
-        <v>0.0956</v>
+        <v>0.0953</v>
       </c>
       <c r="D177">
-        <v>0.296</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3831</v>
+        <v>0.3826</v>
       </c>
       <c r="C178">
-        <v>0.0912</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="D178">
-        <v>0.2919</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3765</v>
+        <v>0.376</v>
       </c>
       <c r="C179">
-        <v>0.08799999999999999</v>
+        <v>0.0877</v>
       </c>
       <c r="D179">
-        <v>0.2885</v>
+        <v>0.2884</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,10 +3656,10 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3711</v>
+        <v>0.3707</v>
       </c>
       <c r="C180">
-        <v>0.0857</v>
+        <v>0.0853</v>
       </c>
       <c r="D180">
         <v>0.2854</v>
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3682</v>
+        <v>0.3678</v>
       </c>
       <c r="C181">
-        <v>0.0847</v>
+        <v>0.0843</v>
       </c>
       <c r="D181">
-        <v>0.2836</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,10 +3684,10 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3641</v>
+        <v>0.3637</v>
       </c>
       <c r="C182">
-        <v>0.0827</v>
+        <v>0.0824</v>
       </c>
       <c r="D182">
         <v>0.2813</v>
@@ -3698,10 +3698,10 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.359</v>
+        <v>0.3586</v>
       </c>
       <c r="C183">
-        <v>0.081</v>
+        <v>0.0806</v>
       </c>
       <c r="D183">
         <v>0.278</v>
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3546</v>
+        <v>0.3543</v>
       </c>
       <c r="C184">
-        <v>0.0798</v>
+        <v>0.0794</v>
       </c>
       <c r="D184">
-        <v>0.2748</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3523</v>
+        <v>0.352</v>
       </c>
       <c r="C185">
-        <v>0.0803</v>
+        <v>0.0799</v>
       </c>
       <c r="D185">
-        <v>0.272</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3515</v>
+        <v>0.3513</v>
       </c>
       <c r="C186">
-        <v>0.08169999999999999</v>
+        <v>0.0814</v>
       </c>
       <c r="D186">
-        <v>0.2698</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3577</v>
+        <v>0.3575</v>
       </c>
       <c r="C187">
-        <v>0.08740000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D187">
-        <v>0.2704</v>
+        <v>0.2705</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3646</v>
+        <v>0.3643</v>
       </c>
       <c r="C188">
-        <v>0.09370000000000001</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D188">
-        <v>0.2709</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3708</v>
+        <v>0.3705</v>
       </c>
       <c r="C189">
-        <v>0.1</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="D189">
-        <v>0.2707</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3772</v>
+        <v>0.377</v>
       </c>
       <c r="C190">
-        <v>0.1068</v>
+        <v>0.1063</v>
       </c>
       <c r="D190">
-        <v>0.2705</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3829</v>
+        <v>0.3827</v>
       </c>
       <c r="C191">
-        <v>0.1137</v>
+        <v>0.1133</v>
       </c>
       <c r="D191">
-        <v>0.2692</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3889</v>
+        <v>0.3887</v>
       </c>
       <c r="C192">
-        <v>0.1209</v>
+        <v>0.1205</v>
       </c>
       <c r="D192">
-        <v>0.268</v>
+        <v>0.2683</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3957</v>
+        <v>0.3956</v>
       </c>
       <c r="C193">
-        <v>0.1288</v>
+        <v>0.1284</v>
       </c>
       <c r="D193">
-        <v>0.2669</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4035</v>
+        <v>0.4034</v>
       </c>
       <c r="C194">
-        <v>0.1378</v>
+        <v>0.1373</v>
       </c>
       <c r="D194">
-        <v>0.2657</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>0.411</v>
       </c>
       <c r="C195">
-        <v>0.1467</v>
+        <v>0.1463</v>
       </c>
       <c r="D195">
-        <v>0.2643</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4184</v>
+        <v>0.4185</v>
       </c>
       <c r="C196">
-        <v>0.1558</v>
+        <v>0.1555</v>
       </c>
       <c r="D196">
-        <v>0.2626</v>
+        <v>0.2631</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4243</v>
+        <v>0.4245</v>
       </c>
       <c r="C197">
-        <v>0.1648</v>
+        <v>0.1644</v>
       </c>
       <c r="D197">
-        <v>0.2595</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.43</v>
+        <v>0.4302</v>
       </c>
       <c r="C198">
-        <v>0.173</v>
+        <v>0.1727</v>
       </c>
       <c r="D198">
-        <v>0.257</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4341</v>
+        <v>0.4344</v>
       </c>
       <c r="C199">
-        <v>0.1802</v>
+        <v>0.1799</v>
       </c>
       <c r="D199">
-        <v>0.2539</v>
+        <v>0.2545</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4377</v>
+        <v>0.438</v>
       </c>
       <c r="C200">
-        <v>0.1872</v>
+        <v>0.1869</v>
       </c>
       <c r="D200">
-        <v>0.2505</v>
+        <v>0.2511</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4406</v>
+        <v>0.441</v>
       </c>
       <c r="C201">
-        <v>0.1937</v>
+        <v>0.1934</v>
       </c>
       <c r="D201">
-        <v>0.2469</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4441</v>
+        <v>0.4446</v>
       </c>
       <c r="C202">
-        <v>0.2004</v>
+        <v>0.2001</v>
       </c>
       <c r="D202">
-        <v>0.2437</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4479</v>
+        <v>0.4484</v>
       </c>
       <c r="C203">
-        <v>0.2075</v>
+        <v>0.2073</v>
       </c>
       <c r="D203">
-        <v>0.2404</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4512</v>
+        <v>0.4517</v>
       </c>
       <c r="C204">
-        <v>0.2141</v>
+        <v>0.2139</v>
       </c>
       <c r="D204">
-        <v>0.2371</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4527</v>
+        <v>0.4532</v>
       </c>
       <c r="C205">
-        <v>0.2184</v>
+        <v>0.2182</v>
       </c>
       <c r="D205">
-        <v>0.2343</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4532</v>
+        <v>0.4538</v>
       </c>
       <c r="C206">
-        <v>0.2226</v>
+        <v>0.2225</v>
       </c>
       <c r="D206">
-        <v>0.2306</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4458</v>
+        <v>0.4465</v>
       </c>
       <c r="C207">
-        <v>0.2217</v>
+        <v>0.2216</v>
       </c>
       <c r="D207">
-        <v>0.2241</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4377</v>
+        <v>0.4385</v>
       </c>
       <c r="C208">
-        <v>0.2198</v>
+        <v>0.2197</v>
       </c>
       <c r="D208">
-        <v>0.2179</v>
+        <v>0.2188</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4299</v>
+        <v>0.4307</v>
       </c>
       <c r="C209">
         <v>0.2178</v>
       </c>
       <c r="D209">
-        <v>0.2121</v>
+        <v>0.2129</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4217</v>
+        <v>0.4225</v>
       </c>
       <c r="C210">
         <v>0.2152</v>
       </c>
       <c r="D210">
-        <v>0.2065</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4212</v>
+        <v>0.422</v>
       </c>
       <c r="C211">
         <v>0.2135</v>
       </c>
       <c r="D211">
-        <v>0.2078</v>
+        <v>0.2085</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4208</v>
+        <v>0.4215</v>
       </c>
       <c r="C212">
         <v>0.2117</v>
       </c>
       <c r="D212">
-        <v>0.2092</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4215</v>
+        <v>0.4221</v>
       </c>
       <c r="C213">
+        <v>0.2111</v>
+      </c>
+      <c r="D213">
         <v>0.211</v>
-      </c>
-      <c r="D213">
-        <v>0.2105</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4215</v>
+        <v>0.422</v>
       </c>
       <c r="C214">
         <v>0.2098</v>
       </c>
       <c r="D214">
-        <v>0.2117</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4196</v>
+        <v>0.42</v>
       </c>
       <c r="C215">
-        <v>0.2077</v>
+        <v>0.2078</v>
       </c>
       <c r="D215">
-        <v>0.2119</v>
+        <v>0.2123</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4164</v>
+        <v>0.4169</v>
       </c>
       <c r="C216">
-        <v>0.2047</v>
+        <v>0.2048</v>
       </c>
       <c r="D216">
-        <v>0.2117</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4133</v>
+        <v>0.4137</v>
       </c>
       <c r="C217">
-        <v>0.2019</v>
+        <v>0.202</v>
       </c>
       <c r="D217">
-        <v>0.2113</v>
+        <v>0.2117</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4106</v>
+        <v>0.4111</v>
       </c>
       <c r="C218">
-        <v>0.1999</v>
+        <v>0.2</v>
       </c>
       <c r="D218">
-        <v>0.2107</v>
+        <v>0.2111</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4082</v>
+        <v>0.4087</v>
       </c>
       <c r="C219">
-        <v>0.1979</v>
+        <v>0.1981</v>
       </c>
       <c r="D219">
-        <v>0.2102</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.405</v>
+        <v>0.4056</v>
       </c>
       <c r="C220">
-        <v>0.1953</v>
+        <v>0.1954</v>
       </c>
       <c r="D220">
-        <v>0.2098</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4016</v>
+        <v>0.4022</v>
       </c>
       <c r="C221">
-        <v>0.1929</v>
+        <v>0.193</v>
       </c>
       <c r="D221">
-        <v>0.2087</v>
+        <v>0.2092</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3996</v>
+        <v>0.4002</v>
       </c>
       <c r="C222">
-        <v>0.1918</v>
+        <v>0.1919</v>
       </c>
       <c r="D222">
-        <v>0.2078</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3976</v>
+        <v>0.3982</v>
       </c>
       <c r="C223">
-        <v>0.1905</v>
+        <v>0.1907</v>
       </c>
       <c r="D223">
-        <v>0.207</v>
+        <v>0.2075</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3968</v>
+        <v>0.3975</v>
       </c>
       <c r="C224">
-        <v>0.1901</v>
+        <v>0.1903</v>
       </c>
       <c r="D224">
-        <v>0.2066</v>
+        <v>0.2072</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3966</v>
+        <v>0.3973</v>
       </c>
       <c r="C225">
-        <v>0.1905</v>
+        <v>0.1907</v>
       </c>
       <c r="D225">
-        <v>0.2061</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3972</v>
+        <v>0.3979</v>
       </c>
       <c r="C226">
-        <v>0.1912</v>
+        <v>0.1914</v>
       </c>
       <c r="D226">
-        <v>0.206</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4006</v>
+        <v>0.4014</v>
       </c>
       <c r="C227">
-        <v>0.1944</v>
+        <v>0.1946</v>
       </c>
       <c r="D227">
-        <v>0.2062</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4053</v>
+        <v>0.4061</v>
       </c>
       <c r="C228">
-        <v>0.1985</v>
+        <v>0.1987</v>
       </c>
       <c r="D228">
-        <v>0.2068</v>
+        <v>0.2074</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4106</v>
+        <v>0.4114</v>
       </c>
       <c r="C229">
-        <v>0.2031</v>
+        <v>0.2033</v>
       </c>
       <c r="D229">
-        <v>0.2075</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4176</v>
+        <v>0.4184</v>
       </c>
       <c r="C230">
-        <v>0.2088</v>
+        <v>0.209</v>
       </c>
       <c r="D230">
-        <v>0.2088</v>
+        <v>0.2094</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="C231">
-        <v>0.213</v>
+        <v>0.2132</v>
       </c>
       <c r="D231">
-        <v>0.2041</v>
+        <v>0.2048</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4156</v>
+        <v>0.4166</v>
       </c>
       <c r="C232">
-        <v>0.2159</v>
+        <v>0.2161</v>
       </c>
       <c r="D232">
-        <v>0.1997</v>
+        <v>0.2005</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4135</v>
+        <v>0.4146</v>
       </c>
       <c r="C233">
-        <v>0.2176</v>
+        <v>0.2179</v>
       </c>
       <c r="D233">
-        <v>0.1958</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4113</v>
+        <v>0.4125</v>
       </c>
       <c r="C234">
-        <v>0.219</v>
+        <v>0.2192</v>
       </c>
       <c r="D234">
-        <v>0.1923</v>
+        <v>0.1933</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C235">
-        <v>0.2205</v>
+        <v>0.2207</v>
       </c>
       <c r="D235">
-        <v>0.1894</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4089</v>
+        <v>0.4101</v>
       </c>
       <c r="C236">
-        <v>0.2222</v>
+        <v>0.2224</v>
       </c>
       <c r="D236">
-        <v>0.1867</v>
+        <v>0.1877</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4083</v>
+        <v>0.4094</v>
       </c>
       <c r="C237">
-        <v>0.2237</v>
+        <v>0.224</v>
       </c>
       <c r="D237">
-        <v>0.1846</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4081</v>
+        <v>0.4092</v>
       </c>
       <c r="C238">
-        <v>0.2254</v>
+        <v>0.2256</v>
       </c>
       <c r="D238">
-        <v>0.1827</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4075</v>
+        <v>0.4086</v>
       </c>
       <c r="C239">
-        <v>0.2264</v>
+        <v>0.2266</v>
       </c>
       <c r="D239">
-        <v>0.1812</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,13 +4496,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="C240">
-        <v>0.2281</v>
+        <v>0.2282</v>
       </c>
       <c r="D240">
-        <v>0.18</v>
+        <v>0.1808</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4087</v>
+        <v>0.4096</v>
       </c>
       <c r="C241">
-        <v>0.2295</v>
+        <v>0.2297</v>
       </c>
       <c r="D241">
-        <v>0.1792</v>
+        <v>0.1799</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4089</v>
+        <v>0.4098</v>
       </c>
       <c r="C242">
-        <v>0.2303</v>
+        <v>0.2305</v>
       </c>
       <c r="D242">
-        <v>0.1786</v>
+        <v>0.1793</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4091</v>
+        <v>0.4099</v>
       </c>
       <c r="C243">
-        <v>0.2309</v>
+        <v>0.2311</v>
       </c>
       <c r="D243">
-        <v>0.1782</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4552,13 +4552,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4092</v>
+        <v>0.4099</v>
       </c>
       <c r="C244">
-        <v>0.2314</v>
+        <v>0.2315</v>
       </c>
       <c r="D244">
-        <v>0.1778</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4094</v>
+        <v>0.41</v>
       </c>
       <c r="C245">
-        <v>0.2318</v>
+        <v>0.2319</v>
       </c>
       <c r="D245">
-        <v>0.1776</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4089</v>
+        <v>0.4094</v>
       </c>
       <c r="C246">
-        <v>0.2314</v>
+        <v>0.2315</v>
       </c>
       <c r="D246">
-        <v>0.1775</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.4068</v>
+        <v>0.4073</v>
       </c>
       <c r="C247">
-        <v>0.2292</v>
+        <v>0.2293</v>
       </c>
       <c r="D247">
-        <v>0.1776</v>
+        <v>0.1779</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.4041</v>
+        <v>0.4045</v>
       </c>
       <c r="C248">
         <v>0.2267</v>
       </c>
       <c r="D248">
-        <v>0.1775</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.4005</v>
+        <v>0.4008</v>
       </c>
       <c r="C249">
-        <v>0.2227</v>
+        <v>0.2228</v>
       </c>
       <c r="D249">
-        <v>0.1778</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3966</v>
+        <v>0.3968</v>
       </c>
       <c r="C250">
-        <v>0.2185</v>
+        <v>0.2186</v>
       </c>
       <c r="D250">
-        <v>0.1781</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3923</v>
+        <v>0.3925</v>
       </c>
       <c r="C251">
         <v>0.2141</v>
       </c>
       <c r="D251">
-        <v>0.1783</v>
+        <v>0.1784</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3888</v>
+        <v>0.3889</v>
       </c>
       <c r="C252">
         <v>0.2103</v>
       </c>
       <c r="D252">
-        <v>0.1785</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4684,7 +4684,7 @@
         <v>0.2057</v>
       </c>
       <c r="D253">
-        <v>0.1786</v>
+        <v>0.1787</v>
       </c>
     </row>
   </sheetData>
